--- a/02_bases_procesadas/01_ips_complete_wide.xlsx
+++ b/02_bases_procesadas/01_ips_complete_wide.xlsx
@@ -875,152 +875,152 @@
         <v>53</v>
       </c>
       <c r="C2" t="n">
-        <v>23.4</v>
+        <v>-0.143995521092789</v>
       </c>
       <c r="D2" t="n">
-        <v>34.96753</v>
+        <v>0.227858961611324</v>
       </c>
       <c r="E2" t="n">
-        <v>13.62475</v>
+        <v>0.292931246748882</v>
       </c>
       <c r="F2" t="n">
-        <v>16214</v>
+        <v>3.64117891601679</v>
       </c>
       <c r="G2" t="n">
-        <v>70.63433</v>
+        <v>0.0480295600981373</v>
       </c>
       <c r="H2" t="n">
-        <v>67.73839741</v>
+        <v>0.157434607584199</v>
       </c>
       <c r="I2" t="n">
-        <v>91.72950794</v>
+        <v>0.267631794093722</v>
       </c>
       <c r="J2" t="n">
-        <v>1.558498506</v>
+        <v>-0.176263795201832</v>
       </c>
       <c r="K2" t="n">
-        <v>2.765557057</v>
+        <v>-0.170094603226644</v>
       </c>
       <c r="L2" t="n">
-        <v>15.77046804</v>
+        <v>-0.175179483869747</v>
       </c>
       <c r="M2" t="n">
-        <v>5.739875</v>
+        <v>-0.163378980477849</v>
       </c>
       <c r="N2" t="n">
-        <v>17.1094985</v>
+        <v>0.131610122295295</v>
       </c>
       <c r="O2" t="n">
-        <v>314.852020390975</v>
+        <v>0.0475284966945901</v>
       </c>
       <c r="P2" t="n">
-        <v>2.7</v>
+        <v>0.170353508661673</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.88425</v>
+        <v>0.180105725449831</v>
       </c>
       <c r="R2" t="n">
-        <v>73.2</v>
+        <v>0.332970021709611</v>
       </c>
       <c r="S2" t="n">
-        <v>4811966</v>
+        <v>3.60305212525098</v>
       </c>
       <c r="T2" t="n">
-        <v>5.48</v>
+        <v>-0.150653411385969</v>
       </c>
       <c r="U2" t="n">
-        <v>14887845</v>
+        <v>3.60082872228959</v>
       </c>
       <c r="V2" t="n">
-        <v>6137546</v>
+        <v>3.60061527257763</v>
       </c>
       <c r="W2" t="n">
-        <v>71.46701</v>
+        <v>-0.0387022570568973</v>
       </c>
       <c r="X2" t="n">
-        <v>44.9</v>
+        <v>0.0253773284603159</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.2</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.520817023464785</v>
+        <v>-0.0164940397104769</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.9</v>
+        <v>-0.0755389464855137</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.29469838</v>
+        <v>0.0253193484930997</v>
       </c>
       <c r="AC2" t="n">
-        <v>166934</v>
+        <v>3.63951032340158</v>
       </c>
       <c r="AD2" t="n">
-        <v>81.1889462</v>
+        <v>0.339819755085741</v>
       </c>
       <c r="AE2" t="n">
-        <v>52.96875</v>
+        <v>0.151039029616912</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.463101961875</v>
+        <v>0.144895742663552</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>-0.161823582340209</v>
       </c>
       <c r="AH2" t="n">
-        <v>38</v>
+        <v>-0.257281497108855</v>
       </c>
       <c r="AI2" t="n">
-        <v>80.9</v>
+        <v>0.0967839698356082</v>
       </c>
       <c r="AJ2" t="n">
-        <v>56.4</v>
+        <v>-0.0890141983215308</v>
       </c>
       <c r="AK2" t="n">
-        <v>52.28</v>
+        <v>0.340027967572308</v>
       </c>
       <c r="AL2"/>
       <c r="AM2" t="n">
-        <v>0.30748820754717</v>
+        <v>-0.0649377021168836</v>
       </c>
       <c r="AN2" t="n">
-        <v>18.2</v>
+        <v>0.218705083448675</v>
       </c>
       <c r="AO2" t="n">
-        <v>30097</v>
+        <v>0.476382637597403</v>
       </c>
       <c r="AP2" t="n">
-        <v>52.9</v>
+        <v>0.00784250406907947</v>
       </c>
       <c r="AQ2" t="n">
-        <v>28.7</v>
+        <v>0.502894862314644</v>
       </c>
       <c r="AR2" t="n">
-        <v>64.1</v>
+        <v>0.0159272103951344</v>
       </c>
       <c r="AS2" t="n">
-        <v>25.76</v>
+        <v>0.0437275628864192</v>
       </c>
       <c r="AT2" t="n">
-        <v>42.6</v>
+        <v>0.115471156028273</v>
       </c>
       <c r="AU2" t="n">
-        <v>17.60262</v>
+        <v>0.0118275068856866</v>
       </c>
       <c r="AV2" t="n">
-        <v>25.48645</v>
+        <v>-0.0577256792724418</v>
       </c>
       <c r="AW2" t="n">
-        <v>9.01</v>
+        <v>-0.0165001335200414</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0832760697510854</v>
+        <v>-0.299385705800165</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.0512460597115</v>
+        <v>0.25316811096795</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1931</v>
+        <v>3.57788613603549</v>
       </c>
     </row>
     <row r="3">
@@ -1031,154 +1031,154 @@
         <v>55</v>
       </c>
       <c r="C3" t="n">
-        <v>21.6</v>
+        <v>-0.261963243184411</v>
       </c>
       <c r="D3" t="n">
-        <v>25.82645</v>
+        <v>-0.18220748814151</v>
       </c>
       <c r="E3" t="n">
-        <v>8.7441</v>
+        <v>-0.338776668082664</v>
       </c>
       <c r="F3" t="n">
-        <v>108</v>
+        <v>-0.0816403682606986</v>
       </c>
       <c r="G3" t="n">
-        <v>93.4275006</v>
+        <v>1.18806586324856</v>
       </c>
       <c r="H3" t="n">
-        <v>92.41007118</v>
+        <v>1.07337408715056</v>
       </c>
       <c r="I3" t="n">
-        <v>97.34539733</v>
+        <v>0.544108508846226</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0.26941950021329</v>
       </c>
       <c r="K3" t="n">
-        <v>0.41102551</v>
+        <v>-0.310952923248543</v>
       </c>
       <c r="L3" t="n">
-        <v>1.443874331</v>
+        <v>-0.801721881016627</v>
       </c>
       <c r="M3" t="n">
-        <v>1.450427</v>
+        <v>-0.42592609230193</v>
       </c>
       <c r="N3" t="n">
-        <v>3.37882229</v>
+        <v>-0.531099459469864</v>
       </c>
       <c r="O3" t="n">
-        <v>315.657087079759</v>
+        <v>0.049139065166436</v>
       </c>
       <c r="P3" t="n">
-        <v>4.7</v>
+        <v>1.23506293779713</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.691</v>
+        <v>0.0794246972659145</v>
       </c>
       <c r="R3" t="n">
-        <v>43.2</v>
+        <v>-1.29014289748766</v>
       </c>
       <c r="S3" t="n">
-        <v>51094</v>
+        <v>-0.296574996333236</v>
       </c>
       <c r="T3" t="n">
-        <v>2.59</v>
+        <v>-0.326964791250492</v>
       </c>
       <c r="U3" t="n">
-        <v>160223</v>
+        <v>-0.295822560952994</v>
       </c>
       <c r="V3" t="n">
-        <v>68368</v>
+        <v>-0.294334786945922</v>
       </c>
       <c r="W3" t="n">
-        <v>74.8481</v>
+        <v>0.287880688076448</v>
       </c>
       <c r="X3" t="n">
-        <v>54.2</v>
+        <v>0.607090033659817</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.3</v>
+        <v>0.0629497690795085</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.150169879676384</v>
+        <v>-0.639858795087009</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.9</v>
+        <v>0.791301423020443</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.31053254</v>
+        <v>1.00263325128671</v>
       </c>
       <c r="AC3" t="n">
-        <v>1189</v>
+        <v>-0.0798193344781329</v>
       </c>
       <c r="AD3" t="n">
-        <v>61.3443958</v>
+        <v>-0.148415890079679</v>
       </c>
       <c r="AE3" t="n">
-        <v>72</v>
+        <v>0.639566634515924</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.448</v>
+        <v>0.111826994994762</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0625</v>
+        <v>-0.800513586964405</v>
       </c>
       <c r="AH3" t="n">
-        <v>66.3</v>
+        <v>1.55521724319214</v>
       </c>
       <c r="AI3" t="n">
-        <v>83.8213</v>
+        <v>0.287333729385536</v>
       </c>
       <c r="AJ3" t="n">
-        <v>66.2916</v>
+        <v>0.640547020786629</v>
       </c>
       <c r="AK3" t="n">
-        <v>37.2</v>
+        <v>-0.991031598434246</v>
       </c>
       <c r="AL3" t="n">
-        <v>20.6</v>
+        <v>-0.773761640299937</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.547169811320755</v>
+        <v>0.933832896885239</v>
       </c>
       <c r="AN3" t="n">
-        <v>17.8</v>
+        <v>0.17347803517273</v>
       </c>
       <c r="AO3" t="n">
-        <v>20186</v>
+        <v>-0.00919972699923343</v>
       </c>
       <c r="AP3" t="n">
-        <v>41.3</v>
+        <v>-0.699725640830103</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27.38</v>
+        <v>0.402895970006231</v>
       </c>
       <c r="AR3" t="n">
-        <v>72.5</v>
+        <v>0.640273857884421</v>
       </c>
       <c r="AS3" t="n">
-        <v>11.11</v>
+        <v>-1.34250860824554</v>
       </c>
       <c r="AT3" t="n">
-        <v>26.6667</v>
+        <v>-0.685100233709141</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.25362</v>
+        <v>-0.520800211285431</v>
       </c>
       <c r="AV3" t="n">
-        <v>23.56917</v>
+        <v>-0.177097379436025</v>
       </c>
       <c r="AW3" t="n">
-        <v>9.64</v>
+        <v>0.579939119130592</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.277339346110485</v>
+        <v>1.17062376834129</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.03465898531871</v>
+        <v>0.214067536755869</v>
       </c>
       <c r="AZ3" t="n">
-        <v>24</v>
+        <v>-0.287101808834609</v>
       </c>
     </row>
     <row r="4">
@@ -1189,154 +1189,154 @@
         <v>57</v>
       </c>
       <c r="C4" t="n">
-        <v>17.2</v>
+        <v>-0.550328786075042</v>
       </c>
       <c r="D4" t="n">
-        <v>32.02211</v>
+        <v>0.0957281934273682</v>
       </c>
       <c r="E4" t="n">
-        <v>10.1291</v>
+        <v>-0.159514589867326</v>
       </c>
       <c r="F4" t="n">
-        <v>919</v>
+        <v>0.105818121715027</v>
       </c>
       <c r="G4" t="n">
-        <v>86.7800728</v>
+        <v>0.855584299030751</v>
       </c>
       <c r="H4" t="n">
-        <v>88.24917455</v>
+        <v>0.918900194161356</v>
       </c>
       <c r="I4" t="n">
-        <v>95.5043948</v>
+        <v>0.453473829991654</v>
       </c>
       <c r="J4" t="n">
-        <v>1.080870246</v>
+        <v>-0.20481293857438</v>
       </c>
       <c r="K4" t="n">
-        <v>1.572889368</v>
+        <v>-0.241445172825506</v>
       </c>
       <c r="L4" t="n">
-        <v>1.001308881</v>
+        <v>-0.8210765178249</v>
       </c>
       <c r="M4" t="n">
-        <v>4.628005</v>
+        <v>-0.231433951006421</v>
       </c>
       <c r="N4" t="n">
-        <v>25.4333649</v>
+        <v>0.533360621414599</v>
       </c>
       <c r="O4" t="n">
-        <v>417.684944341434</v>
+        <v>0.253249920136528</v>
       </c>
       <c r="P4" t="n">
-        <v>3.6</v>
+        <v>0.649472751772629</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.967</v>
+        <v>1.26519452984854</v>
       </c>
       <c r="R4" t="n">
-        <v>53.2</v>
+        <v>-0.749105257755234</v>
       </c>
       <c r="S4" t="n">
-        <v>106570</v>
+        <v>-0.251134641247653</v>
       </c>
       <c r="T4" t="n">
-        <v>1.95</v>
+        <v>-0.366009525891771</v>
       </c>
       <c r="U4" t="n">
-        <v>404354</v>
+        <v>-0.231230098271015</v>
       </c>
       <c r="V4" t="n">
-        <v>170949</v>
+        <v>-0.228502499269405</v>
       </c>
       <c r="W4" t="n">
-        <v>84.46</v>
+        <v>1.21630395108548</v>
       </c>
       <c r="X4" t="n">
-        <v>58.1</v>
+        <v>0.851034071324124</v>
       </c>
       <c r="Y4" t="n">
-        <v>56.5</v>
+        <v>0.990028186432274</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.268033119363487</v>
+        <v>-0.441633094965654</v>
       </c>
       <c r="AA4" t="n">
-        <v>74</v>
+        <v>-0.855695279040879</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.46721866</v>
+        <v>-0.176060340611333</v>
       </c>
       <c r="AC4" t="n">
-        <v>4432</v>
+        <v>-0.00704618246447392</v>
       </c>
       <c r="AD4" t="n">
-        <v>60.6648293</v>
+        <v>-0.165135270558075</v>
       </c>
       <c r="AE4" t="n">
-        <v>25</v>
+        <v>-0.566912048190337</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.798</v>
+        <v>0.878221572062031</v>
       </c>
       <c r="AG4" t="n">
-        <v>3.7881</v>
+        <v>-0.601183452411282</v>
       </c>
       <c r="AH4" t="n">
-        <v>46.2</v>
+        <v>0.267894816335251</v>
       </c>
       <c r="AI4" t="n">
-        <v>88.3815</v>
+        <v>0.584785211088745</v>
       </c>
       <c r="AJ4" t="n">
-        <v>57.1412</v>
+        <v>-0.0343465231625103</v>
       </c>
       <c r="AK4" t="n">
-        <v>30.92</v>
+        <v>-1.54534552910541</v>
       </c>
       <c r="AL4" t="n">
-        <v>27.4</v>
+        <v>0.249007525712075</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.471698113207547</v>
+        <v>0.619336865711137</v>
       </c>
       <c r="AN4" t="n">
-        <v>18.9</v>
+        <v>0.297852417931578</v>
       </c>
       <c r="AO4" t="n">
-        <v>24351</v>
+        <v>0.194861472531085</v>
       </c>
       <c r="AP4" t="n">
-        <v>38.8</v>
+        <v>-0.852218775506651</v>
       </c>
       <c r="AQ4" t="n">
-        <v>35.84</v>
+        <v>1.04379796161924</v>
       </c>
       <c r="AR4" t="n">
-        <v>65.2</v>
+        <v>0.097686890423494</v>
       </c>
       <c r="AS4" t="n">
-        <v>32</v>
+        <v>0.634179010522148</v>
       </c>
       <c r="AT4" t="n">
-        <v>44.4444</v>
+        <v>0.208143350189664</v>
       </c>
       <c r="AU4" t="n">
-        <v>15.60272</v>
+        <v>-0.115756895266717</v>
       </c>
       <c r="AV4" t="n">
-        <v>15.57117</v>
+        <v>-0.67506056577727</v>
       </c>
       <c r="AW4" t="n">
-        <v>9.68</v>
+        <v>0.617808278029044</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.0189910979228487</v>
+        <v>-0.786337793826413</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.05138646114731</v>
+        <v>0.253499078119261</v>
       </c>
       <c r="AZ4" t="n">
-        <v>79</v>
+        <v>-0.175631259821575</v>
       </c>
     </row>
     <row r="5">
@@ -1347,154 +1347,154 @@
         <v>59</v>
       </c>
       <c r="C5" t="n">
-        <v>24.6</v>
+        <v>-0.0653503730317077</v>
       </c>
       <c r="D5" t="n">
-        <v>22.33306</v>
+        <v>-0.338920046712495</v>
       </c>
       <c r="E5" t="n">
-        <v>9.231</v>
+        <v>-0.275756663834976</v>
       </c>
       <c r="F5" t="n">
-        <v>72</v>
+        <v>-0.0899615835987086</v>
       </c>
       <c r="G5" t="n">
-        <v>77.8371948</v>
+        <v>0.408292180107847</v>
       </c>
       <c r="H5" t="n">
-        <v>40.01978646</v>
+        <v>-0.871622858258158</v>
       </c>
       <c r="I5" t="n">
-        <v>91.84119216</v>
+        <v>0.273130137114914</v>
       </c>
       <c r="J5" t="n">
-        <v>2.539262261</v>
+        <v>-0.117640871474301</v>
       </c>
       <c r="K5" t="n">
-        <v>2.608084728</v>
+        <v>-0.17951528299674</v>
       </c>
       <c r="L5" t="n">
-        <v>1.924161465</v>
+        <v>-0.780717568451657</v>
       </c>
       <c r="M5" t="n">
-        <v>8.723302</v>
+        <v>0.0192296307439168</v>
       </c>
       <c r="N5" t="n">
-        <v>25.0053484</v>
+        <v>0.512702451972296</v>
       </c>
       <c r="O5" t="n">
-        <v>583.180291340092</v>
+        <v>0.584330055268964</v>
       </c>
       <c r="P5" t="n">
-        <v>3.2</v>
+        <v>0.436530865945537</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.898</v>
+        <v>0.708257820256791</v>
       </c>
       <c r="R5" t="n">
-        <v>61.8</v>
+        <v>-0.283812887585351</v>
       </c>
       <c r="S5" t="n">
-        <v>26482</v>
+        <v>-0.316734669333566</v>
       </c>
       <c r="T5" t="n">
-        <v>2.49</v>
+        <v>-0.333065531038192</v>
       </c>
       <c r="U5" t="n">
-        <v>80703</v>
+        <v>-0.316862054636594</v>
       </c>
       <c r="V5" t="n">
-        <v>32555</v>
+        <v>-0.317318104700273</v>
       </c>
       <c r="W5" t="n">
-        <v>87.5135</v>
+        <v>1.51124464268631</v>
       </c>
       <c r="X5" t="n">
-        <v>57</v>
+        <v>0.78222934275214</v>
       </c>
       <c r="Y5" t="n">
-        <v>57.7</v>
+        <v>1.05870066179174</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.833511612205944</v>
+        <v>0.509404484222241</v>
       </c>
       <c r="AA5" t="n">
-        <v>76</v>
+        <v>0.877985459971033</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.91836032</v>
+        <v>0.663827112517013</v>
       </c>
       <c r="AC5" t="n">
-        <v>824</v>
+        <v>-0.0880099605912953</v>
       </c>
       <c r="AD5" t="n">
-        <v>50.0106967</v>
+        <v>-0.427258987084247</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>-1.20865602835324</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.798</v>
+        <v>0.878221572062031</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.2205</v>
+        <v>-0.738557312589132</v>
       </c>
       <c r="AH5" t="n">
-        <v>37.3</v>
+        <v>-0.302113621427254</v>
       </c>
       <c r="AI5" t="n">
-        <v>84.794</v>
+        <v>0.350780739659803</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51.7704</v>
+        <v>-0.43047327672979</v>
       </c>
       <c r="AK5" t="n">
-        <v>52.63</v>
+        <v>0.370921259886784</v>
       </c>
       <c r="AL5" t="n">
-        <v>33.3</v>
+        <v>1.13641018445779</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.19811320754717</v>
+        <v>-0.520711247294974</v>
       </c>
       <c r="AN5" t="n">
-        <v>16.7</v>
+        <v>0.0491036524138827</v>
       </c>
       <c r="AO5" t="n">
-        <v>31604</v>
+        <v>0.550217025998889</v>
       </c>
       <c r="AP5" t="n">
-        <v>40.5</v>
+        <v>-0.748523443926598</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29.34</v>
+        <v>0.551379173736904</v>
       </c>
       <c r="AR5" t="n">
-        <v>67.1</v>
+        <v>0.238908155927023</v>
       </c>
       <c r="AS5" t="n">
-        <v>33.3</v>
+        <v>0.757189728779592</v>
       </c>
       <c r="AT5" t="n">
-        <v>50</v>
+        <v>0.487285424513575</v>
       </c>
       <c r="AU5" t="n">
-        <v>10.57892</v>
+        <v>-0.436252179797566</v>
       </c>
       <c r="AV5" t="n">
-        <v>20.60558</v>
+        <v>-0.361613348354386</v>
       </c>
       <c r="AW5" t="n">
-        <v>9.89</v>
+        <v>0.816621362245923</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.243589743589744</v>
+        <v>0.914973980371529</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.995466383717565</v>
+        <v>0.121679138947984</v>
       </c>
       <c r="AZ5" t="n">
-        <v>11</v>
+        <v>-0.31344939314678</v>
       </c>
     </row>
     <row r="6">
@@ -1505,154 +1505,154 @@
         <v>61</v>
       </c>
       <c r="C6" t="n">
-        <v>24.3</v>
+        <v>-0.0850116600469781</v>
       </c>
       <c r="D6" t="n">
-        <v>46.51974</v>
+        <v>0.746088070370813</v>
       </c>
       <c r="E6" t="n">
-        <v>15.52596</v>
+        <v>0.539006954852696</v>
       </c>
       <c r="F6" t="n">
-        <v>143</v>
+        <v>-0.0735502977931888</v>
       </c>
       <c r="G6" t="n">
-        <v>55.7808355</v>
+        <v>-0.694891346159859</v>
       </c>
       <c r="H6" t="n">
-        <v>74.88055223</v>
+        <v>0.422588144786358</v>
       </c>
       <c r="I6" t="n">
-        <v>90.74982721</v>
+        <v>0.21940098131827</v>
       </c>
       <c r="J6" t="n">
-        <v>2.179036433</v>
+        <v>-0.139172551383833</v>
       </c>
       <c r="K6" t="n">
-        <v>1.822302927</v>
+        <v>-0.22652416870637</v>
       </c>
       <c r="L6" t="n">
-        <v>25.77195671</v>
+        <v>0.262213857047195</v>
       </c>
       <c r="M6" t="n">
-        <v>11.76396</v>
+        <v>0.205341218049506</v>
       </c>
       <c r="N6" t="n">
-        <v>7.30777285</v>
+        <v>-0.341469091484252</v>
       </c>
       <c r="O6" t="n">
-        <v>406.726641303969</v>
+        <v>0.23132739170136</v>
       </c>
       <c r="P6" t="n">
-        <v>1.1</v>
+        <v>-0.681414034646693</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.944</v>
+        <v>-0.309753714394553</v>
       </c>
       <c r="R6" t="n">
-        <v>53.7</v>
+        <v>-0.722053375768613</v>
       </c>
       <c r="S6" t="n">
-        <v>36653</v>
+        <v>-0.30840360992814</v>
       </c>
       <c r="T6" t="n">
-        <v>6.65</v>
+        <v>-0.0792747558698815</v>
       </c>
       <c r="U6" t="n">
-        <v>107146</v>
+        <v>-0.309865735075786</v>
       </c>
       <c r="V6" t="n">
-        <v>43526</v>
+        <v>-0.310277365888026</v>
       </c>
       <c r="W6" t="n">
-        <v>73.53</v>
+        <v>0.160564059421114</v>
       </c>
       <c r="X6" t="n">
-        <v>44.4</v>
+        <v>-0.00589754816331314</v>
       </c>
       <c r="Y6" t="n">
-        <v>40.2</v>
+        <v>0.0572270627995534</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.19978360266657</v>
+        <v>1.12541098409995</v>
       </c>
       <c r="AA6" t="n">
-        <v>75.2</v>
+        <v>0.184513164366271</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.38012635</v>
+        <v>1.01956995617827</v>
       </c>
       <c r="AC6" t="n">
-        <v>1094</v>
+        <v>-0.0819511412747094</v>
       </c>
       <c r="AD6" t="n">
-        <v>71.5507312</v>
+        <v>0.102690668061022</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>-0.926288677081564</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.14262637</v>
+        <v>-0.556849273609086</v>
       </c>
       <c r="AG6" t="n">
-        <v>21.589</v>
+        <v>0.351215031636035</v>
       </c>
       <c r="AH6" t="n">
-        <v>31.3</v>
+        <v>-0.686388972727819</v>
       </c>
       <c r="AI6" t="n">
-        <v>89.2424</v>
+        <v>0.640939761458969</v>
       </c>
       <c r="AJ6" t="n">
-        <v>68.5928</v>
+        <v>0.810273483382336</v>
       </c>
       <c r="AK6" t="n">
-        <v>61.23</v>
+        <v>1.13001358532819</v>
       </c>
       <c r="AL6" t="n">
-        <v>22.9</v>
+        <v>-0.427825010619404</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.235849056603774</v>
+        <v>-0.363463231707923</v>
       </c>
       <c r="AN6" t="n">
-        <v>19.4</v>
+        <v>0.354386228276508</v>
       </c>
       <c r="AO6" t="n">
-        <v>17460</v>
+        <v>-0.142758149548969</v>
       </c>
       <c r="AP6" t="n">
-        <v>54.1</v>
+        <v>0.0810392087138227</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22.05</v>
+        <v>-0.000887436057282302</v>
       </c>
       <c r="AR6" t="n">
-        <v>60</v>
+        <v>-0.288813415165112</v>
       </c>
       <c r="AS6" t="n">
-        <v>22.86</v>
+        <v>-0.230680962457109</v>
       </c>
       <c r="AT6" t="n">
-        <v>10</v>
+        <v>-1.52252143216373</v>
       </c>
       <c r="AU6" t="n">
-        <v>13.88898</v>
+        <v>-0.225085608374703</v>
       </c>
       <c r="AV6" t="n">
-        <v>29.48317</v>
+        <v>0.191113958901324</v>
       </c>
       <c r="AW6" t="n">
-        <v>8.94</v>
+        <v>-0.0827711615923342</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.00709219858156018</v>
+        <v>-0.876470739593833</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.982007862110674</v>
+        <v>0.0899534765186968</v>
       </c>
       <c r="AZ6" t="n">
-        <v>5</v>
+        <v>-0.325609816675475</v>
       </c>
     </row>
     <row r="7">
@@ -1663,154 +1663,154 @@
         <v>63</v>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>-0.235748193830717</v>
       </c>
       <c r="D7" t="n">
-        <v>28.30314</v>
+        <v>-0.0711038247408677</v>
       </c>
       <c r="E7" t="n">
-        <v>12.30354</v>
+        <v>0.121925578619721</v>
       </c>
       <c r="F7" t="n">
-        <v>282</v>
+        <v>-0.0414211607936501</v>
       </c>
       <c r="G7" t="n">
-        <v>86.3555106</v>
+        <v>0.83434915235285</v>
       </c>
       <c r="H7" t="n">
-        <v>53.78936549</v>
+        <v>-0.360425232666899</v>
       </c>
       <c r="I7" t="n">
-        <v>65.59616776</v>
+        <v>-1.01894269780097</v>
       </c>
       <c r="J7" t="n">
-        <v>4.976669498</v>
+        <v>0.0280496047684543</v>
       </c>
       <c r="K7" t="n">
-        <v>0.40069072</v>
+        <v>-0.311571195345612</v>
       </c>
       <c r="L7" t="n">
-        <v>1.456434736</v>
+        <v>-0.801172579038942</v>
       </c>
       <c r="M7" t="n">
-        <v>2.421342</v>
+        <v>-0.366498648706233</v>
       </c>
       <c r="N7" t="n">
-        <v>10.4314</v>
+        <v>-0.190707569581989</v>
       </c>
       <c r="O7" t="n">
-        <v>487.942901248968</v>
+        <v>0.393803804514098</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>0.330059923031991</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.861</v>
+        <v>1.20996974854197</v>
       </c>
       <c r="R7" t="n">
-        <v>74.9</v>
+        <v>0.424946420464123</v>
       </c>
       <c r="S7" t="n">
-        <v>120673</v>
+        <v>-0.239582883230277</v>
       </c>
       <c r="T7" t="n">
-        <v>1.97</v>
+        <v>-0.364789377934231</v>
       </c>
       <c r="U7" t="n">
-        <v>364594</v>
+        <v>-0.241749845112815</v>
       </c>
       <c r="V7" t="n">
-        <v>148731</v>
+        <v>-0.242761102398609</v>
       </c>
       <c r="W7" t="n">
-        <v>74.4881</v>
+        <v>0.253107919458043</v>
       </c>
       <c r="X7" t="n">
-        <v>48.1</v>
+        <v>0.225536538851542</v>
       </c>
       <c r="Y7" t="n">
-        <v>41</v>
+        <v>0.103008713039196</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.366598723703207</v>
+        <v>-0.275862698869342</v>
       </c>
       <c r="AA7" t="n">
-        <v>75.7</v>
+        <v>0.617933349119249</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.03221536</v>
+        <v>0.204805245913813</v>
       </c>
       <c r="AC7" t="n">
-        <v>4395</v>
+        <v>-0.00787646511156161</v>
       </c>
       <c r="AD7" t="n">
-        <v>89.7833602</v>
+        <v>0.551268197077589</v>
       </c>
       <c r="AE7" t="n">
-        <v>35</v>
+        <v>-0.310214456125175</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.70601375</v>
+        <v>0.676799391591305</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.8904</v>
+        <v>-0.43520163030903</v>
       </c>
       <c r="AH7" t="n">
-        <v>51.4</v>
+        <v>0.600933454129074</v>
       </c>
       <c r="AI7" t="n">
-        <v>78.9544</v>
+        <v>-0.0301230962583708</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65.7032</v>
+        <v>0.597149206345765</v>
       </c>
       <c r="AK7" t="n">
-        <v>45</v>
+        <v>-0.302552512568788</v>
       </c>
       <c r="AL7" t="n">
-        <v>27.9</v>
+        <v>0.324211140860017</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.235849056603774</v>
+        <v>-0.363463231707923</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>0.648362042070148</v>
       </c>
       <c r="AO7" t="n">
-        <v>20350</v>
+        <v>-0.00116466416058462</v>
       </c>
       <c r="AP7" t="n">
-        <v>34.1</v>
+        <v>-1.13890586869856</v>
       </c>
       <c r="AQ7" t="n">
-        <v>29.37</v>
+        <v>0.553651875834823</v>
       </c>
       <c r="AR7" t="n">
-        <v>69.6</v>
+        <v>0.424725610536929</v>
       </c>
       <c r="AS7" t="n">
-        <v>39.02</v>
+        <v>1.29843688911234</v>
       </c>
       <c r="AT7" t="n">
-        <v>48.4848</v>
+        <v>0.411153940782638</v>
       </c>
       <c r="AU7" t="n">
-        <v>13.824</v>
+        <v>-0.229231032871859</v>
       </c>
       <c r="AV7" t="n">
-        <v>23.77437</v>
+        <v>-0.164321429718943</v>
       </c>
       <c r="AW7" t="n">
-        <v>9.78</v>
+        <v>0.712481175275176</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0450519830573739</v>
+        <v>-0.588929253833943</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.9088519220824</v>
+        <v>-0.0824964199725976</v>
       </c>
       <c r="AZ7" t="n">
-        <v>54</v>
+        <v>-0.226299691191136</v>
       </c>
     </row>
     <row r="8">
@@ -1821,154 +1821,154 @@
         <v>65</v>
       </c>
       <c r="C8" t="n">
-        <v>25.4</v>
+        <v>-0.0129202743243205</v>
       </c>
       <c r="D8" t="n">
-        <v>22.37637</v>
+        <v>-0.336977171479066</v>
       </c>
       <c r="E8" t="n">
-        <v>8.57761</v>
+        <v>-0.360325652488492</v>
       </c>
       <c r="F8" t="n">
-        <v>118</v>
+        <v>-0.0793289195556958</v>
       </c>
       <c r="G8" t="n">
-        <v>85.9213662</v>
+        <v>0.812634736859928</v>
       </c>
       <c r="H8" t="n">
-        <v>17.18753691</v>
+        <v>-1.71927344593681</v>
       </c>
       <c r="I8" t="n">
-        <v>18.30208805</v>
+        <v>-3.34728481378839</v>
       </c>
       <c r="J8" t="n">
-        <v>0.227974223</v>
+        <v>-0.255792859323841</v>
       </c>
       <c r="K8" t="n">
-        <v>0.333600075</v>
+        <v>-0.315584849592856</v>
       </c>
       <c r="L8" t="n">
-        <v>1.690769453</v>
+        <v>-0.790924460169508</v>
       </c>
       <c r="M8" t="n">
-        <v>6.312058</v>
+        <v>-0.128356993013533</v>
       </c>
       <c r="N8" t="n">
-        <v>31.4536869</v>
+        <v>0.823930802641791</v>
       </c>
       <c r="O8" t="n">
-        <v>849.665233006695</v>
+        <v>1.11744395906019</v>
       </c>
       <c r="P8" t="n">
-        <v>2.7</v>
+        <v>0.170353508661673</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.789</v>
+        <v>0.13048157054935</v>
       </c>
       <c r="R8" t="n">
-        <v>56.5</v>
+        <v>-0.570562836643535</v>
       </c>
       <c r="S8" t="n">
-        <v>25000</v>
+        <v>-0.317948574558111</v>
       </c>
       <c r="T8" t="n">
-        <v>3.88</v>
+        <v>-0.248265247989165</v>
       </c>
       <c r="U8" t="n">
-        <v>77035</v>
+        <v>-0.317832538324112</v>
       </c>
       <c r="V8" t="n">
-        <v>32810</v>
+        <v>-0.317154456136138</v>
       </c>
       <c r="W8" t="n">
-        <v>77.9388</v>
+        <v>0.586414565767853</v>
       </c>
       <c r="X8" t="n">
-        <v>54.9</v>
+        <v>0.650874860932897</v>
       </c>
       <c r="Y8" t="n">
-        <v>47.8</v>
+        <v>0.492152740076159</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.554249988915</v>
+        <v>0.0397344586838969</v>
       </c>
       <c r="AA8" t="n">
-        <v>75.9</v>
+        <v>0.791301423020443</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.48237485</v>
+        <v>0.557723462747022</v>
       </c>
       <c r="AC8" t="n">
-        <v>1062</v>
+        <v>-0.0826692235640826</v>
       </c>
       <c r="AD8" t="n">
-        <v>93.1139981</v>
+        <v>0.633211910144473</v>
       </c>
       <c r="AE8" t="n">
-        <v>35</v>
+        <v>-0.310214456125175</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.448</v>
+        <v>0.111826994994762</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.2342</v>
+        <v>-0.684321496238343</v>
       </c>
       <c r="AH8" t="n">
-        <v>53</v>
+        <v>0.703406881142558</v>
       </c>
       <c r="AI8" t="n">
-        <v>87.0331</v>
+        <v>0.496832143695077</v>
       </c>
       <c r="AJ8" t="n">
-        <v>56.5824</v>
+        <v>-0.0755611708673951</v>
       </c>
       <c r="AK8" t="n">
-        <v>60.18</v>
+        <v>1.03733370838476</v>
       </c>
       <c r="AL8" t="n">
-        <v>21.7</v>
+        <v>-0.608313686974464</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.188679245283019</v>
+        <v>-0.560023251191737</v>
       </c>
       <c r="AN8" t="n">
-        <v>17.2</v>
+        <v>0.105637462758813</v>
       </c>
       <c r="AO8" t="n">
-        <v>9230</v>
+        <v>-0.545981120049455</v>
       </c>
       <c r="AP8" t="n">
-        <v>50.7</v>
+        <v>-0.126351454446282</v>
       </c>
       <c r="AQ8" t="n">
-        <v>25.6</v>
+        <v>0.268048978863069</v>
       </c>
       <c r="AR8" t="n">
-        <v>69.8</v>
+        <v>0.439591006905722</v>
       </c>
       <c r="AS8" t="n">
-        <v>42.42</v>
+        <v>1.62015722917027</v>
       </c>
       <c r="AT8" t="n">
-        <v>75</v>
+        <v>1.74341470993689</v>
       </c>
       <c r="AU8" t="n">
-        <v>11.8699</v>
+        <v>-0.353893606123528</v>
       </c>
       <c r="AV8" t="n">
-        <v>20.45443</v>
+        <v>-0.371024092992481</v>
       </c>
       <c r="AW8" t="n">
-        <v>9.52</v>
+        <v>0.466331642435233</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.203821656050955</v>
+        <v>0.613734783820805</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.968981853937606</v>
+        <v>0.0592473744540915</v>
       </c>
       <c r="AZ8" t="n">
-        <v>12</v>
+        <v>-0.311422655891998</v>
       </c>
     </row>
     <row r="9">
@@ -1979,154 +1979,154 @@
         <v>67</v>
       </c>
       <c r="C9" t="n">
-        <v>27.5</v>
+        <v>0.124708734782572</v>
       </c>
       <c r="D9" t="n">
-        <v>59.8472</v>
+        <v>1.34395442822163</v>
       </c>
       <c r="E9" t="n">
-        <v>21.43618</v>
+        <v>1.30397325081649</v>
       </c>
       <c r="F9" t="n">
-        <v>1101</v>
+        <v>0.147886488146078</v>
       </c>
       <c r="G9" t="n">
-        <v>42.9069051</v>
+        <v>-1.33880123819707</v>
       </c>
       <c r="H9" t="n">
-        <v>42.10110654</v>
+        <v>-0.794353547361047</v>
       </c>
       <c r="I9" t="n">
-        <v>87.54037359</v>
+        <v>0.0613958762696939</v>
       </c>
       <c r="J9" t="n">
-        <v>4.976669498</v>
+        <v>0.0280496047684543</v>
       </c>
       <c r="K9" t="n">
-        <v>14.61535396</v>
+        <v>0.538811797489884</v>
       </c>
       <c r="L9" t="n">
-        <v>80.33363185</v>
+        <v>2.64834997767227</v>
       </c>
       <c r="M9" t="n">
-        <v>13.05773</v>
+        <v>0.284529863503336</v>
       </c>
       <c r="N9" t="n">
-        <v>10.1548301</v>
+        <v>-0.204056185480771</v>
       </c>
       <c r="O9" t="n">
-        <v>36.9266548086888</v>
+        <v>-0.508472437848065</v>
       </c>
       <c r="P9" t="n">
-        <v>1.5</v>
+        <v>-0.468472148819601</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.405</v>
+        <v>-0.0695780145612526</v>
       </c>
       <c r="R9" t="n">
-        <v>54.6</v>
+        <v>-0.673359988192695</v>
       </c>
       <c r="S9" t="n">
-        <v>291885</v>
+        <v>-0.099343246722369</v>
       </c>
       <c r="T9" t="n">
-        <v>14.84</v>
+        <v>0.420375832742729</v>
       </c>
       <c r="U9" t="n">
-        <v>768271</v>
+        <v>-0.134944516997691</v>
       </c>
       <c r="V9" t="n">
-        <v>286965</v>
+        <v>-0.154048178419748</v>
       </c>
       <c r="W9" t="n">
-        <v>56.6168</v>
+        <v>-1.47309924668115</v>
       </c>
       <c r="X9" t="n">
-        <v>23.1</v>
+        <v>-1.33820729232991</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.1</v>
+        <v>-1.49362633906834</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.226081560053197</v>
+        <v>-0.512188403283509</v>
       </c>
       <c r="AA9" t="n">
-        <v>72.8</v>
+        <v>-1.89590372244803</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.95348108</v>
+        <v>0.18564406957917</v>
       </c>
       <c r="AC9" t="n">
-        <v>5198</v>
+        <v>0.0101429123373956</v>
       </c>
       <c r="AD9" t="n">
-        <v>64.489765</v>
+        <v>-0.0710303444416461</v>
       </c>
       <c r="AE9" t="n">
-        <v>100</v>
+        <v>1.35831989229838</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.01702227</v>
+        <v>-0.831884419601701</v>
       </c>
       <c r="AG9" t="n">
-        <v>38.3136</v>
+        <v>1.24602842232402</v>
       </c>
       <c r="AH9" t="n">
-        <v>25.9</v>
+        <v>-1.03223678889833</v>
       </c>
       <c r="AI9" t="n">
-        <v>71.5835</v>
+        <v>-0.510910150880138</v>
       </c>
       <c r="AJ9" t="n">
-        <v>50.9702</v>
+        <v>-0.489492534234172</v>
       </c>
       <c r="AK9" t="n">
-        <v>46.25</v>
+        <v>-0.192219325731374</v>
       </c>
       <c r="AL9" t="n">
-        <v>24</v>
+        <v>-0.262377057293931</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.179245283018868</v>
+        <v>-0.599335255088499</v>
       </c>
       <c r="AN9" t="n">
-        <v>18.4</v>
+        <v>0.241318607586647</v>
       </c>
       <c r="AO9" t="n">
-        <v>14116</v>
+        <v>-0.306595040600442</v>
       </c>
       <c r="AP9" t="n">
-        <v>66.8</v>
+        <v>0.855704332870686</v>
       </c>
       <c r="AQ9" t="n">
-        <v>16.89</v>
+        <v>-0.391792196899258</v>
       </c>
       <c r="AR9" t="n">
-        <v>61.3</v>
+        <v>-0.192188338767961</v>
       </c>
       <c r="AS9" t="n">
-        <v>12</v>
+        <v>-1.25829357805391</v>
       </c>
       <c r="AT9" t="n">
-        <v>29.5455</v>
+        <v>-0.540454434234075</v>
       </c>
       <c r="AU9" t="n">
-        <v>31.84143</v>
+        <v>0.920197956013976</v>
       </c>
       <c r="AV9" t="n">
-        <v>39.36177</v>
+        <v>0.806165113263742</v>
       </c>
       <c r="AW9" t="n">
-        <v>6.92</v>
+        <v>-1.9951636859642</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0380100614868641</v>
+        <v>-0.642271089646503</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.9395560585406</v>
+        <v>-0.0101178113179247</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>-0.276968122560697</v>
       </c>
     </row>
     <row r="10">
@@ -2137,152 +2137,152 @@
         <v>69</v>
       </c>
       <c r="C10" t="n">
-        <v>18.7</v>
+        <v>-0.45202235099869</v>
       </c>
       <c r="D10" t="n">
-        <v>48.30218</v>
+        <v>0.826047860975144</v>
       </c>
       <c r="E10" t="n">
-        <v>15.24739</v>
+        <v>0.502951332377283</v>
       </c>
       <c r="F10" t="n">
-        <v>635</v>
+        <v>0.0401729784929483</v>
       </c>
       <c r="G10" t="n">
-        <v>88.5839322</v>
+        <v>0.945807166128457</v>
       </c>
       <c r="H10" t="n">
-        <v>93.96288735</v>
+        <v>1.13102261346747</v>
       </c>
       <c r="I10" t="n">
-        <v>96.83009071</v>
+        <v>0.518739369339755</v>
       </c>
       <c r="J10" t="n">
-        <v>0.101657797</v>
+        <v>-0.263343136512594</v>
       </c>
       <c r="K10" t="n">
-        <v>2.995403143</v>
+        <v>-0.156344210466428</v>
       </c>
       <c r="L10" t="n">
-        <v>50.1980719</v>
+        <v>1.330436846753</v>
       </c>
       <c r="M10" t="n">
-        <v>5.320226</v>
+        <v>-0.189064717414132</v>
       </c>
       <c r="N10" t="n">
-        <v>42.5828312</v>
+        <v>1.36107773201775</v>
       </c>
       <c r="O10" t="n">
-        <v>907.069607167852</v>
+        <v>1.2322837312903</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>-0.202294791535737</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.421</v>
+        <v>-0.0612421985149775</v>
       </c>
       <c r="R10" t="n">
-        <v>73.6</v>
+        <v>0.354611527298908</v>
       </c>
       <c r="S10" t="n">
-        <v>123156</v>
+        <v>-0.237549059564593</v>
       </c>
       <c r="T10" t="n">
-        <v>2.6</v>
+        <v>-0.326354717271722</v>
       </c>
       <c r="U10" t="n">
-        <v>442155</v>
+        <v>-0.221228665917723</v>
       </c>
       <c r="V10" t="n">
-        <v>177021</v>
+        <v>-0.224605738165772</v>
       </c>
       <c r="W10" t="n">
-        <v>76.4105</v>
+        <v>0.438794503880328</v>
       </c>
       <c r="X10" t="n">
-        <v>47.8</v>
+        <v>0.206771612877365</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.8</v>
+        <v>0.148790363278839</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0553023781958207</v>
+        <v>-0.799409618139824</v>
       </c>
       <c r="AA10" t="n">
-        <v>72.9</v>
+        <v>-1.80921968549743</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.6411506</v>
+        <v>1.56982436062771</v>
       </c>
       <c r="AC10" t="n">
-        <v>5737</v>
+        <v>0.0222381108990244</v>
       </c>
       <c r="AD10" t="n">
-        <v>69.598043</v>
+        <v>0.0546486633838131</v>
       </c>
       <c r="AE10" t="n">
-        <v>58</v>
+        <v>0.280190005624697</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.73401885</v>
+        <v>0.738122125220524</v>
       </c>
       <c r="AG10" t="n">
-        <v>6.7322</v>
+        <v>-0.443665777637327</v>
       </c>
       <c r="AH10" t="n">
-        <v>42.8</v>
+        <v>0.0501387839315973</v>
       </c>
       <c r="AI10" t="n">
-        <v>75.1276</v>
+        <v>-0.279736562812873</v>
       </c>
       <c r="AJ10" t="n">
-        <v>61.2388</v>
+        <v>0.26787455850452</v>
       </c>
       <c r="AK10" t="n">
-        <v>32.63</v>
+        <v>-1.39440972951183</v>
       </c>
       <c r="AL10"/>
       <c r="AM10" t="n">
-        <v>0.245283018867925</v>
+        <v>-0.32415122781116</v>
       </c>
       <c r="AN10" t="n">
-        <v>21.4</v>
+        <v>0.580521469656231</v>
       </c>
       <c r="AO10" t="n">
-        <v>36472</v>
+        <v>0.788721208307074</v>
       </c>
       <c r="AP10" t="n">
-        <v>32.9</v>
+        <v>-1.2121025733433</v>
       </c>
       <c r="AQ10" t="n">
-        <v>30.6</v>
+        <v>0.64683266184948</v>
       </c>
       <c r="AR10" t="n">
-        <v>72.7</v>
+        <v>0.655139254253214</v>
       </c>
       <c r="AS10" t="n">
-        <v>28</v>
+        <v>0.255684492806937</v>
       </c>
       <c r="AT10" t="n">
-        <v>34.6939</v>
+        <v>-0.281772193711139</v>
       </c>
       <c r="AU10" t="n">
-        <v>28.53633</v>
+        <v>0.709347809729707</v>
       </c>
       <c r="AV10" t="n">
-        <v>8.97672</v>
+        <v>-1.08563737675102</v>
       </c>
       <c r="AW10" t="n">
-        <v>9.45</v>
+        <v>0.40006061436294</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.191823018762251</v>
+        <v>0.522846333300592</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.01888394525014</v>
+        <v>0.17688116438584</v>
       </c>
       <c r="AZ10" t="n">
-        <v>52</v>
+        <v>-0.230353165700701</v>
       </c>
     </row>
     <row r="11">
@@ -2293,152 +2293,152 @@
         <v>71</v>
       </c>
       <c r="C11" t="n">
-        <v>11.7</v>
+        <v>-0.91078571468833</v>
       </c>
       <c r="D11" t="n">
-        <v>44.33221</v>
+        <v>0.647956048681055</v>
       </c>
       <c r="E11" t="n">
-        <v>12.50802</v>
+        <v>0.148391650643889</v>
       </c>
       <c r="F11" t="n">
-        <v>1683</v>
+        <v>0.282412802777241</v>
       </c>
       <c r="G11" t="n">
-        <v>86.8156828</v>
+        <v>0.857365389229549</v>
       </c>
       <c r="H11" t="n">
-        <v>78.35668473</v>
+        <v>0.551640069784867</v>
       </c>
       <c r="I11" t="n">
-        <v>92.05327118</v>
+        <v>0.283571031984022</v>
       </c>
       <c r="J11" t="n">
-        <v>0.303857184</v>
+        <v>-0.251257127846976</v>
       </c>
       <c r="K11" t="n">
-        <v>0.212938096</v>
+        <v>-0.322803374090484</v>
       </c>
       <c r="L11" t="n">
-        <v>0.052337048</v>
+        <v>-0.862577735710291</v>
       </c>
       <c r="M11" t="n">
-        <v>3.827258</v>
+        <v>-0.280445808045321</v>
       </c>
       <c r="N11" t="n">
-        <v>11.9221958</v>
+        <v>-0.118754473754434</v>
       </c>
       <c r="O11" t="n">
-        <v>136.18900830955</v>
+        <v>-0.309894085002319</v>
       </c>
       <c r="P11" t="n">
-        <v>1.5</v>
+        <v>-0.468472148819601</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.814</v>
+        <v>0.143506283121654</v>
       </c>
       <c r="R11" t="n">
-        <v>78.5</v>
+        <v>0.619719970767795</v>
       </c>
       <c r="S11" t="n">
-        <v>299199</v>
+        <v>-0.0933523541364589</v>
       </c>
       <c r="T11" t="n">
-        <v>1.48</v>
+        <v>-0.39468300289396</v>
       </c>
       <c r="U11" t="n">
-        <v>942442</v>
+        <v>-0.0888621521288991</v>
       </c>
       <c r="V11" t="n">
-        <v>461252</v>
+        <v>-0.0421979145085258</v>
       </c>
       <c r="W11" t="n">
-        <v>79.7012</v>
+        <v>0.756646586359735</v>
       </c>
       <c r="X11" t="n">
-        <v>64.5</v>
+        <v>1.25135249210658</v>
       </c>
       <c r="Y11" t="n">
-        <v>63.1</v>
+        <v>1.36772680090933</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.10390701393815</v>
+        <v>0.964163049829757</v>
       </c>
       <c r="AA11" t="n">
-        <v>76.1</v>
+        <v>0.964669496921624</v>
       </c>
       <c r="AB11" t="n">
-        <v>4.07341688</v>
+        <v>-0.271897952226966</v>
       </c>
       <c r="AC11" t="n">
-        <v>19546</v>
+        <v>0.332113058835077</v>
       </c>
       <c r="AD11" t="n">
-        <v>106.758847</v>
+        <v>0.968916245672083</v>
       </c>
       <c r="AE11" t="n">
-        <v>39</v>
+        <v>-0.207535419299111</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.37283783</v>
+        <v>2.13694327379094</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0537</v>
+        <v>-0.800984411847395</v>
       </c>
       <c r="AH11" t="n">
-        <v>35</v>
+        <v>-0.449419172759137</v>
       </c>
       <c r="AI11" t="n">
-        <v>88.1962</v>
+        <v>0.572698513233475</v>
       </c>
       <c r="AJ11" t="n">
-        <v>49.4037</v>
+        <v>-0.605030733285178</v>
       </c>
       <c r="AK11" t="n">
-        <v>44.21</v>
+        <v>-0.372283086650033</v>
       </c>
       <c r="AL11"/>
       <c r="AM11" t="n">
-        <v>0.349056603773585</v>
+        <v>0.108280815053226</v>
       </c>
       <c r="AN11" t="n">
-        <v>14.4</v>
+        <v>-0.210951875172798</v>
       </c>
       <c r="AO11" t="n">
-        <v>25889</v>
+        <v>0.270214683786219</v>
       </c>
       <c r="AP11" t="n">
-        <v>50.1</v>
+        <v>-0.162949806768654</v>
       </c>
       <c r="AQ11" t="n">
-        <v>29.44</v>
+        <v>0.558954847396633</v>
       </c>
       <c r="AR11" t="n">
-        <v>65.7</v>
+        <v>0.134850381345475</v>
       </c>
       <c r="AS11" t="n">
-        <v>33.33</v>
+        <v>0.760028437662456</v>
       </c>
       <c r="AT11" t="n">
-        <v>65.4135</v>
+        <v>1.26173937414847</v>
       </c>
       <c r="AU11" t="n">
-        <v>11.64259</v>
+        <v>-0.368394936416674</v>
       </c>
       <c r="AV11" t="n">
-        <v>16.42663</v>
+        <v>-0.621798801912869</v>
       </c>
       <c r="AW11" t="n">
-        <v>10.84</v>
+        <v>1.71601388608418</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.00545671573921447</v>
+        <v>-0.888859354885432</v>
       </c>
       <c r="AY11" t="n">
-        <v>1.11385471237692</v>
+        <v>0.400754973599176</v>
       </c>
       <c r="AZ11" t="n">
-        <v>391</v>
+        <v>0.456710763670544</v>
       </c>
     </row>
     <row r="12">
@@ -2449,152 +2449,152 @@
         <v>73</v>
       </c>
       <c r="C12" t="n">
-        <v>19.9</v>
+        <v>-0.373377202937609</v>
       </c>
       <c r="D12" t="n">
-        <v>31.14383</v>
+        <v>0.056328783129141</v>
       </c>
       <c r="E12" t="n">
-        <v>14.04304</v>
+        <v>0.347070982991982</v>
       </c>
       <c r="F12" t="n">
-        <v>173</v>
+        <v>-0.0666159516781805</v>
       </c>
       <c r="G12" t="n">
-        <v>79.0648791</v>
+        <v>0.469696742701162</v>
       </c>
       <c r="H12" t="n">
-        <v>82.24965665</v>
+        <v>0.696167218920046</v>
       </c>
       <c r="I12" t="n">
-        <v>92.6032858</v>
+        <v>0.310648886379485</v>
       </c>
       <c r="J12" t="n">
-        <v>0.14014736</v>
+        <v>-0.261042510388768</v>
       </c>
       <c r="K12" t="n">
-        <v>1.715887398</v>
+        <v>-0.232890408588898</v>
       </c>
       <c r="L12" t="n">
-        <v>10.89607933</v>
+        <v>-0.388350266054388</v>
       </c>
       <c r="M12" t="n">
-        <v>2.052803</v>
+        <v>-0.389056061698425</v>
       </c>
       <c r="N12" t="n">
-        <v>11.1137617</v>
+        <v>-0.157773456949559</v>
       </c>
       <c r="O12" t="n">
-        <v>301.923859506336</v>
+        <v>0.0216651879652223</v>
       </c>
       <c r="P12" t="n">
-        <v>2.2</v>
+        <v>-0.0958238486221912</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.528</v>
+        <v>-0.00549642870551278</v>
       </c>
       <c r="R12" t="n">
-        <v>68</v>
+        <v>0.0516304490487513</v>
       </c>
       <c r="S12" t="n">
-        <v>72560</v>
+        <v>-0.278992209862201</v>
       </c>
       <c r="T12" t="n">
-        <v>3.15</v>
+        <v>-0.292800648439373</v>
       </c>
       <c r="U12" t="n">
-        <v>224979</v>
+        <v>-0.278689343486002</v>
       </c>
       <c r="V12" t="n">
-        <v>93819</v>
+        <v>-0.278001376727119</v>
       </c>
       <c r="W12" t="n">
-        <v>69.2194</v>
+        <v>-0.255801208374715</v>
       </c>
       <c r="X12" t="n">
-        <v>39.1</v>
+        <v>-0.337411240373781</v>
       </c>
       <c r="Y12" t="n">
-        <v>28.2</v>
+        <v>-0.629497690795088</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.056130109594039</v>
+        <v>-0.798017516273628</v>
       </c>
       <c r="AA12" t="n">
-        <v>75.6</v>
+        <v>0.531249312168646</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.51109271</v>
+        <v>0.32134728257201</v>
       </c>
       <c r="AC12" t="n">
-        <v>2472</v>
+        <v>-0.0510287226885787</v>
       </c>
       <c r="AD12" t="n">
-        <v>61.7992507</v>
+        <v>-0.137225091040052</v>
       </c>
       <c r="AE12" t="n">
-        <v>52</v>
+        <v>0.1261714503856</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.45829315</v>
+        <v>0.134365893111733</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.3138</v>
+        <v>-0.145034395035408</v>
       </c>
       <c r="AH12" t="n">
-        <v>50.2</v>
+        <v>0.524078383868961</v>
       </c>
       <c r="AI12" t="n">
-        <v>74.6651</v>
+        <v>-0.309904386655629</v>
       </c>
       <c r="AJ12" t="n">
-        <v>57.8096</v>
+        <v>0.014951741916132</v>
       </c>
       <c r="AK12" t="n">
-        <v>41.63</v>
+        <v>-0.600010784282454</v>
       </c>
       <c r="AL12"/>
       <c r="AM12" t="n">
-        <v>0.292452830188679</v>
+        <v>-0.127591208327351</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>0.535294421380287</v>
       </c>
       <c r="AO12" t="n">
-        <v>23365</v>
+        <v>0.14655310692799</v>
       </c>
       <c r="AP12" t="n">
-        <v>50.9</v>
+        <v>-0.114152003672159</v>
       </c>
       <c r="AQ12" t="n">
-        <v>25.84</v>
+        <v>0.286230595646417</v>
       </c>
       <c r="AR12" t="n">
-        <v>69.9</v>
+        <v>0.447023705090119</v>
       </c>
       <c r="AS12" t="n">
-        <v>16.6</v>
+        <v>-0.823024882681414</v>
       </c>
       <c r="AT12" t="n">
-        <v>55</v>
+        <v>0.738511281598238</v>
       </c>
       <c r="AU12" t="n">
-        <v>19.43628</v>
+        <v>0.128806563263894</v>
       </c>
       <c r="AV12" t="n">
-        <v>17.22528</v>
+        <v>-0.572074083386808</v>
       </c>
       <c r="AW12" t="n">
-        <v>9.17</v>
+        <v>0.13497650207377</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.128101557991922</v>
+        <v>0.0401627839151822</v>
       </c>
       <c r="AY12" t="n">
-        <v>1.01549138124021</v>
+        <v>0.168883901113351</v>
       </c>
       <c r="AZ12" t="n">
-        <v>16</v>
+        <v>-0.303315706872868</v>
       </c>
     </row>
     <row r="13">
@@ -2605,152 +2605,152 @@
         <v>75</v>
       </c>
       <c r="C13" t="n">
-        <v>22.9</v>
+        <v>-0.176764332784906</v>
       </c>
       <c r="D13" t="n">
-        <v>31.19449</v>
+        <v>0.0586013774335862</v>
       </c>
       <c r="E13" t="n">
-        <v>15.42394</v>
+        <v>0.525802393683361</v>
       </c>
       <c r="F13" t="n">
-        <v>430</v>
+        <v>-0.00721171995960883</v>
       </c>
       <c r="G13" t="n">
-        <v>77.0035571</v>
+        <v>0.366596478428028</v>
       </c>
       <c r="H13" t="n">
-        <v>26.61763164</v>
+        <v>-1.36917980657617</v>
       </c>
       <c r="I13" t="n">
-        <v>91.00101331</v>
+        <v>0.231767162860798</v>
       </c>
       <c r="J13" t="n">
-        <v>0.207694189</v>
+        <v>-0.257005052250336</v>
       </c>
       <c r="K13" t="n">
-        <v>1.397882526</v>
+        <v>-0.25191484344337</v>
       </c>
       <c r="L13" t="n">
-        <v>9.894266047</v>
+        <v>-0.432162389757603</v>
       </c>
       <c r="M13" t="n">
-        <v>5.074126</v>
+        <v>-0.204127924665952</v>
       </c>
       <c r="N13" t="n">
-        <v>16.3557997</v>
+        <v>0.095232932353176</v>
       </c>
       <c r="O13" t="n">
-        <v>318.803200610796</v>
+        <v>0.0554329925298812</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>1.39476935216745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.824</v>
+        <v>-0.372272334741616</v>
       </c>
       <c r="R13" t="n">
-        <v>64.8</v>
+        <v>-0.121501595665624</v>
       </c>
       <c r="S13" t="n">
-        <v>244806</v>
+        <v>-0.137905624634874</v>
       </c>
       <c r="T13" t="n">
-        <v>6.35</v>
+        <v>-0.0975769752329809</v>
       </c>
       <c r="U13" t="n">
-        <v>783997</v>
+        <v>-0.130783713707094</v>
       </c>
       <c r="V13" t="n">
-        <v>308479</v>
+        <v>-0.140241373679371</v>
       </c>
       <c r="W13" t="n">
-        <v>66.2171</v>
+        <v>-0.545796439549822</v>
       </c>
       <c r="X13" t="n">
-        <v>40.4</v>
+        <v>-0.256096561152346</v>
       </c>
       <c r="Y13" t="n">
-        <v>36.3</v>
+        <v>-0.165958482118705</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.404679579767235</v>
+        <v>-0.211817247763873</v>
       </c>
       <c r="AA13" t="n">
-        <v>75.5</v>
+        <v>0.444565275218055</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.85752851</v>
+        <v>0.649022772677168</v>
       </c>
       <c r="AC13" t="n">
-        <v>7839</v>
+        <v>0.0694071412822224</v>
       </c>
       <c r="AD13" t="n">
-        <v>87.8660538</v>
+        <v>0.504096691131867</v>
       </c>
       <c r="AE13" t="n">
-        <v>62</v>
+        <v>0.382869042450762</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.443788</v>
+        <v>0.102603983684455</v>
       </c>
       <c r="AG13" t="n">
-        <v>3.3935</v>
+        <v>-0.622295668187174</v>
       </c>
       <c r="AH13" t="n">
-        <v>40.9</v>
+        <v>-0.0715484106469149</v>
       </c>
       <c r="AI13" t="n">
-        <v>77.6895</v>
+        <v>-0.112629648428537</v>
       </c>
       <c r="AJ13" t="n">
-        <v>56.1692</v>
+        <v>-0.106036998411523</v>
       </c>
       <c r="AK13" t="n">
-        <v>45.9</v>
+        <v>-0.22311261804585</v>
       </c>
       <c r="AL13"/>
       <c r="AM13" t="n">
-        <v>1</v>
+        <v>2.82080908392984</v>
       </c>
       <c r="AN13" t="n">
-        <v>17.7</v>
+        <v>0.162171273103744</v>
       </c>
       <c r="AO13" t="n">
-        <v>17259</v>
+        <v>-0.152606000954874</v>
       </c>
       <c r="AP13" t="n">
-        <v>53.9</v>
+        <v>0.0688397579396987</v>
       </c>
       <c r="AQ13" t="n">
-        <v>24.81</v>
+        <v>0.208201156951216</v>
       </c>
       <c r="AR13" t="n">
-        <v>66.7</v>
+        <v>0.209177363189438</v>
       </c>
       <c r="AS13" t="n">
-        <v>19.4</v>
+        <v>-0.558078720280767</v>
       </c>
       <c r="AT13" t="n">
-        <v>37.1429</v>
+        <v>-0.158721768911071</v>
       </c>
       <c r="AU13" t="n">
-        <v>17.42794</v>
+        <v>0.000683728012751864</v>
       </c>
       <c r="AV13" t="n">
-        <v>41.99497</v>
+        <v>0.970110682440256</v>
       </c>
       <c r="AW13" t="n">
-        <v>8.3</v>
+        <v>-0.688677703967579</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0387380191693291</v>
+        <v>-0.636756884640421</v>
       </c>
       <c r="AY13" t="n">
-        <v>1.08710729933812</v>
+        <v>0.337703516558664</v>
       </c>
       <c r="AZ13" t="n">
-        <v>72</v>
+        <v>-0.189818420605052</v>
       </c>
     </row>
     <row r="14">
@@ -2761,152 +2761,152 @@
         <v>77</v>
       </c>
       <c r="C14" t="n">
-        <v>38.5</v>
+        <v>0.845622592009149</v>
       </c>
       <c r="D14" t="n">
-        <v>48.62631</v>
+        <v>0.840588247708264</v>
       </c>
       <c r="E14" t="n">
-        <v>18.51852</v>
+        <v>0.926337297657095</v>
       </c>
       <c r="F14" t="n">
-        <v>533</v>
+        <v>0.0165962017019199</v>
       </c>
       <c r="G14" t="n">
-        <v>42.4164288</v>
+        <v>-1.36333318233278</v>
       </c>
       <c r="H14" t="n">
-        <v>20.80676688</v>
+        <v>-1.58490900653733</v>
       </c>
       <c r="I14" t="n">
-        <v>78.91922815</v>
+        <v>-0.363033061540055</v>
       </c>
       <c r="J14" t="n">
-        <v>4.051116967</v>
+        <v>-0.0272731935650101</v>
       </c>
       <c r="K14" t="n">
-        <v>12.07820463</v>
+        <v>0.387028487249748</v>
       </c>
       <c r="L14" t="n">
-        <v>46.50143237</v>
+        <v>1.16877236184064</v>
       </c>
       <c r="M14" t="n">
-        <v>16.84035</v>
+        <v>0.516055215046939</v>
       </c>
       <c r="N14" t="n">
-        <v>67.774015</v>
+        <v>2.57692745601815</v>
       </c>
       <c r="O14" t="n">
-        <v>78.9019267503814</v>
+        <v>-0.424499208638249</v>
       </c>
       <c r="P14" t="n">
-        <v>3.3</v>
+        <v>0.48976633740231</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.096</v>
+        <v>0.811413543829445</v>
       </c>
       <c r="R14" t="n">
-        <v>86.8</v>
+        <v>1.06878121174571</v>
       </c>
       <c r="S14" t="n">
-        <v>192529</v>
+        <v>-0.180725680926045</v>
       </c>
       <c r="T14" t="n">
-        <v>13.61</v>
+        <v>0.345336733354022</v>
       </c>
       <c r="U14" t="n">
-        <v>524292</v>
+        <v>-0.199496763343655</v>
       </c>
       <c r="V14" t="n">
-        <v>205057</v>
+        <v>-0.206613380737995</v>
       </c>
       <c r="W14" t="n">
-        <v>55.1649</v>
+        <v>-1.61333975433966</v>
       </c>
       <c r="X14" t="n">
-        <v>25.3</v>
+        <v>-1.20059783518594</v>
       </c>
       <c r="Y14" t="n">
-        <v>21.7</v>
+        <v>-1.00147359899219</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.62820025320193</v>
+        <v>3.52776214438591</v>
       </c>
       <c r="AA14" t="n">
-        <v>72.9</v>
+        <v>-1.80921968549743</v>
       </c>
       <c r="AB14" t="n">
-        <v>2.04104913</v>
+        <v>-0.766505343500406</v>
       </c>
       <c r="AC14" t="n">
-        <v>4545</v>
+        <v>-0.00451045438012503</v>
       </c>
       <c r="AD14" t="n">
-        <v>87.7371531</v>
+        <v>0.500925346094653</v>
       </c>
       <c r="AE14" t="n">
-        <v>79</v>
+        <v>0.819254948961537</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.30076887</v>
+        <v>-0.210564832455199</v>
       </c>
       <c r="AG14" t="n">
-        <v>37.449</v>
+        <v>1.19976987757025</v>
       </c>
       <c r="AH14" t="n">
-        <v>30</v>
+        <v>-0.769648632176275</v>
       </c>
       <c r="AI14" t="n">
-        <v>75.3716</v>
+        <v>-0.263820997369344</v>
       </c>
       <c r="AJ14" t="n">
-        <v>49.0076</v>
+        <v>-0.634245339505481</v>
       </c>
       <c r="AK14" t="n">
-        <v>56.36</v>
+        <v>0.700155489409625</v>
       </c>
       <c r="AL14"/>
       <c r="AM14" t="n">
-        <v>0.207547169811321</v>
+        <v>-0.481399243398211</v>
       </c>
       <c r="AN14" t="n">
-        <v>20.4</v>
+        <v>0.46745384896637</v>
       </c>
       <c r="AO14" t="n">
-        <v>14819</v>
+        <v>-0.272152057822576</v>
       </c>
       <c r="AP14" t="n">
-        <v>72.9</v>
+        <v>1.22778758148146</v>
       </c>
       <c r="AQ14" t="n">
-        <v>20.08</v>
+        <v>-0.150128207153928</v>
       </c>
       <c r="AR14" t="n">
-        <v>56.7</v>
+        <v>-0.534092455250189</v>
       </c>
       <c r="AS14" t="n">
-        <v>19.4</v>
+        <v>-0.558078720280767</v>
       </c>
       <c r="AT14" t="n">
-        <v>34.7826</v>
+        <v>-0.277315447006457</v>
       </c>
       <c r="AU14" t="n">
-        <v>21.90406</v>
+        <v>0.286239552885204</v>
       </c>
       <c r="AV14" t="n">
-        <v>40.20213</v>
+        <v>0.858486736578786</v>
       </c>
       <c r="AW14" t="n">
-        <v>7.6</v>
+        <v>-1.35138798469051</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.291187739463602</v>
+        <v>1.27552393189938</v>
       </c>
       <c r="AY14" t="n">
-        <v>1.08108382382789</v>
+        <v>0.323504427218064</v>
       </c>
       <c r="AZ14" t="n">
-        <v>20</v>
+        <v>-0.295208757853738</v>
       </c>
     </row>
     <row r="15">
@@ -2917,152 +2917,152 @@
         <v>79</v>
       </c>
       <c r="C15" t="n">
-        <v>31.7</v>
+        <v>0.399966752996355</v>
       </c>
       <c r="D15" t="n">
-        <v>33.20666</v>
+        <v>0.148866795546015</v>
       </c>
       <c r="E15" t="n">
-        <v>10.90285</v>
+        <v>-0.0593672736080347</v>
       </c>
       <c r="F15" t="n">
-        <v>192</v>
+        <v>-0.0622241991386752</v>
       </c>
       <c r="G15" t="n">
-        <v>54.3397487</v>
+        <v>-0.766969570678166</v>
       </c>
       <c r="H15" t="n">
-        <v>44.79821176</v>
+        <v>-0.69422312351658</v>
       </c>
       <c r="I15" t="n">
-        <v>88.55973197</v>
+        <v>0.111580065538036</v>
       </c>
       <c r="J15" t="n">
-        <v>1.334052975</v>
+        <v>-0.189679516549323</v>
       </c>
       <c r="K15" t="n">
-        <v>2.996527389</v>
+        <v>-0.156276953179918</v>
       </c>
       <c r="L15" t="n">
-        <v>18.75477357</v>
+        <v>-0.0446673762073182</v>
       </c>
       <c r="M15" t="n">
-        <v>2.371533</v>
+        <v>-0.369547341473425</v>
       </c>
       <c r="N15" t="n">
-        <v>8.03588211</v>
+        <v>-0.306326977884449</v>
       </c>
       <c r="O15" t="n">
-        <v>126.194389022916</v>
+        <v>-0.329888725117747</v>
       </c>
       <c r="P15" t="n">
-        <v>1.9</v>
+        <v>-0.25553026299251</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.389</v>
+        <v>-0.59890233349972</v>
       </c>
       <c r="R15" t="n">
-        <v>62.1</v>
+        <v>-0.267581758393378</v>
       </c>
       <c r="S15" t="n">
-        <v>119307</v>
+        <v>-0.240701772931173</v>
       </c>
       <c r="T15" t="n">
-        <v>8.2</v>
+        <v>0.0152867108394648</v>
       </c>
       <c r="U15" t="n">
-        <v>355784</v>
+        <v>-0.244080805114733</v>
       </c>
       <c r="V15" t="n">
-        <v>154709</v>
+        <v>-0.238924666648029</v>
       </c>
       <c r="W15" t="n">
-        <v>66.85</v>
+        <v>-0.484663980498187</v>
       </c>
       <c r="X15" t="n">
-        <v>34.1</v>
+        <v>-0.650160006610072</v>
       </c>
       <c r="Y15" t="n">
-        <v>31.8</v>
+        <v>-0.423480264716696</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.137955057691081</v>
+        <v>-0.660402025073919</v>
       </c>
       <c r="AA15" t="n">
-        <v>74.4</v>
+        <v>-0.508959131238492</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.03518544</v>
+        <v>-0.281202150644318</v>
       </c>
       <c r="AC15" t="n">
-        <v>4126</v>
+        <v>-0.0139128443566046</v>
       </c>
       <c r="AD15" t="n">
-        <v>73.047203</v>
+        <v>0.139508376702325</v>
       </c>
       <c r="AE15" t="n">
-        <v>76</v>
+        <v>0.742245671341988</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.64829089</v>
+        <v>0.55040371480041</v>
       </c>
       <c r="AG15" t="n">
-        <v>16.8512</v>
+        <v>0.0977293349735412</v>
       </c>
       <c r="AH15" t="n">
-        <v>51.4</v>
+        <v>0.600933454129074</v>
       </c>
       <c r="AI15" t="n">
-        <v>69.4404</v>
+        <v>-0.650699693101565</v>
       </c>
       <c r="AJ15" t="n">
-        <v>56.5023</v>
+        <v>-0.0814689970684712</v>
       </c>
       <c r="AK15" t="n">
-        <v>45.38</v>
+        <v>-0.269011223770214</v>
       </c>
       <c r="AL15"/>
       <c r="AM15" t="n">
-        <v>0.179245283018868</v>
+        <v>-0.599335255088499</v>
       </c>
       <c r="AN15" t="n">
-        <v>18.6</v>
+        <v>0.26393213172462</v>
       </c>
       <c r="AO15" t="n">
-        <v>26962</v>
+        <v>0.322785552236647</v>
       </c>
       <c r="AP15" t="n">
-        <v>68.3</v>
+        <v>0.947200213676615</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20.29</v>
+        <v>-0.134219292468499</v>
       </c>
       <c r="AR15" t="n">
-        <v>61.4</v>
+        <v>-0.184755640583565</v>
       </c>
       <c r="AS15" t="n">
-        <v>26.7</v>
+        <v>0.132673774549494</v>
       </c>
       <c r="AT15" t="n">
-        <v>26.087</v>
+        <v>-0.714227359579537</v>
       </c>
       <c r="AU15" t="n">
-        <v>20.71299</v>
+        <v>0.210254776710564</v>
       </c>
       <c r="AV15" t="n">
-        <v>33.70723</v>
+        <v>0.454108004524804</v>
       </c>
       <c r="AW15" t="n">
-        <v>8.63</v>
+        <v>-0.376257143055343</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.268211920529801</v>
+        <v>1.10148445290853</v>
       </c>
       <c r="AY15" t="n">
-        <v>1.11381454447148</v>
+        <v>0.40066028612564</v>
       </c>
       <c r="AZ15" t="n">
-        <v>35</v>
+        <v>-0.264807699032002</v>
       </c>
     </row>
     <row r="16">
@@ -3073,152 +3073,152 @@
         <v>81</v>
       </c>
       <c r="C16" t="n">
-        <v>16.5</v>
+        <v>-0.596205122444005</v>
       </c>
       <c r="D16" t="n">
-        <v>24.69017</v>
+        <v>-0.233180710728464</v>
       </c>
       <c r="E16" t="n">
-        <v>10.64421</v>
+        <v>-0.0928433341925946</v>
       </c>
       <c r="F16" t="n">
-        <v>1041</v>
+        <v>0.134017795916062</v>
       </c>
       <c r="G16" t="n">
-        <v>89.6661848</v>
+        <v>0.999937733342257</v>
       </c>
       <c r="H16" t="n">
-        <v>88.06007599</v>
+        <v>0.911879882598881</v>
       </c>
       <c r="I16" t="n">
-        <v>96.33319438</v>
+        <v>0.494276589653317</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-0.26941950021329</v>
       </c>
       <c r="K16" t="n">
-        <v>0.806299751</v>
+        <v>-0.28730589859681</v>
       </c>
       <c r="L16" t="n">
-        <v>4.98933993</v>
+        <v>-0.646668658979362</v>
       </c>
       <c r="M16" t="n">
-        <v>2.391282</v>
+        <v>-0.368338551225492</v>
       </c>
       <c r="N16" t="n">
-        <v>15.4458307</v>
+        <v>0.0513133783424228</v>
       </c>
       <c r="O16" t="n">
-        <v>530.570563963696</v>
+        <v>0.479082167851326</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>0.330059923031991</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.713</v>
+        <v>0.611874947221735</v>
       </c>
       <c r="R16" t="n">
-        <v>69.6</v>
+        <v>0.138196471405939</v>
       </c>
       <c r="S16" t="n">
-        <v>318345</v>
+        <v>-0.0776698781383957</v>
       </c>
       <c r="T16" t="n">
-        <v>3.52</v>
+        <v>-0.270227911224884</v>
       </c>
       <c r="U16" t="n">
-        <v>983740</v>
+        <v>-0.0779354794661059</v>
       </c>
       <c r="V16" t="n">
-        <v>375874</v>
+        <v>-0.0969900208171563</v>
       </c>
       <c r="W16" t="n">
-        <v>76.3199</v>
+        <v>0.430043357111363</v>
       </c>
       <c r="X16" t="n">
-        <v>56.1</v>
+        <v>0.725934564829607</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.4</v>
+        <v>0.469261914956338</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.138133445447461</v>
+        <v>-0.660102007545168</v>
       </c>
       <c r="AA16" t="n">
-        <v>75.5</v>
+        <v>0.444565275218055</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.6178478</v>
+        <v>0.34732774627995</v>
       </c>
       <c r="AC16" t="n">
-        <v>10752</v>
+        <v>0.134775069686721</v>
       </c>
       <c r="AD16" t="n">
-        <v>74.8683274</v>
+        <v>0.184313516069981</v>
       </c>
       <c r="AE16" t="n">
-        <v>49</v>
+        <v>0.0491621727660512</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.44969339</v>
+        <v>0.115535009031505</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.6467</v>
+        <v>-0.769257235073184</v>
       </c>
       <c r="AH16" t="n">
-        <v>40</v>
+        <v>-0.129189713342</v>
       </c>
       <c r="AI16" t="n">
-        <v>86.4718</v>
+        <v>0.460219820402237</v>
       </c>
       <c r="AJ16" t="n">
-        <v>49.9491</v>
+        <v>-0.564804411062121</v>
       </c>
       <c r="AK16" t="n">
-        <v>52.88</v>
+        <v>0.392987897254266</v>
       </c>
       <c r="AL16"/>
       <c r="AM16" t="n">
-        <v>0.632075471698113</v>
+        <v>1.2876409319561</v>
       </c>
       <c r="AN16" t="n">
-        <v>16.7</v>
+        <v>0.0491036524138827</v>
       </c>
       <c r="AO16" t="n">
-        <v>22332</v>
+        <v>0.0959420099016223</v>
       </c>
       <c r="AP16" t="n">
-        <v>46.2</v>
+        <v>-0.400839096864069</v>
       </c>
       <c r="AQ16" t="n">
-        <v>27.02</v>
+        <v>0.37562354483121</v>
       </c>
       <c r="AR16" t="n">
-        <v>68.7</v>
+        <v>0.357831326877363</v>
       </c>
       <c r="AS16" t="n">
-        <v>23</v>
+        <v>-0.217433654337077</v>
       </c>
       <c r="AT16" t="n">
-        <v>42.7083</v>
+        <v>0.120912708092727</v>
       </c>
       <c r="AU16" t="n">
-        <v>12.1708</v>
+        <v>-0.334697573018043</v>
       </c>
       <c r="AV16" t="n">
-        <v>20.19701</v>
+        <v>-0.387051310225284</v>
       </c>
       <c r="AW16" t="n">
-        <v>9.17</v>
+        <v>0.13497650207377</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.0747780244173142</v>
+        <v>-0.363757530220938</v>
       </c>
       <c r="AY16" t="n">
-        <v>1.02804319401648</v>
+        <v>0.198472186264349</v>
       </c>
       <c r="AZ16" t="n">
-        <v>149</v>
+        <v>-0.0337596519868046</v>
       </c>
     </row>
     <row r="17">
@@ -3229,152 +3229,152 @@
         <v>83</v>
       </c>
       <c r="C17" t="n">
-        <v>21.3</v>
+        <v>-0.281624530199681</v>
       </c>
       <c r="D17" t="n">
-        <v>33.58314</v>
+        <v>0.165755589540045</v>
       </c>
       <c r="E17" t="n">
-        <v>13.65243</v>
+        <v>0.29651389969112</v>
       </c>
       <c r="F17" t="n">
-        <v>1169</v>
+        <v>0.163604339340097</v>
       </c>
       <c r="G17" t="n">
-        <v>69.212997</v>
+        <v>-0.0230606470214331</v>
       </c>
       <c r="H17" t="n">
-        <v>53.42961527</v>
+        <v>-0.373781011944484</v>
       </c>
       <c r="I17" t="n">
-        <v>91.19828202</v>
+        <v>0.241478929079231</v>
       </c>
       <c r="J17" t="n">
-        <v>0.156204055</v>
+        <v>-0.260082757949404</v>
       </c>
       <c r="K17" t="n">
-        <v>0.910598367</v>
+        <v>-0.281066301659115</v>
       </c>
       <c r="L17" t="n">
-        <v>6.680870403</v>
+        <v>-0.572693254990999</v>
       </c>
       <c r="M17" t="n">
-        <v>5.652748</v>
+        <v>-0.168711821023275</v>
       </c>
       <c r="N17" t="n">
-        <v>16.3672109</v>
+        <v>0.0957836926699863</v>
       </c>
       <c r="O17" t="n">
-        <v>72.0935224741923</v>
+        <v>-0.438119696758772</v>
       </c>
       <c r="P17" t="n">
-        <v>3.6</v>
+        <v>0.649472751772629</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.035</v>
+        <v>-0.262343760631364</v>
       </c>
       <c r="R17" t="n">
-        <v>90.6</v>
+        <v>1.27437551484403</v>
       </c>
       <c r="S17" t="n">
-        <v>574906</v>
+        <v>0.132479068092624</v>
       </c>
       <c r="T17" t="n">
-        <v>3.34</v>
+        <v>-0.281209242842744</v>
       </c>
       <c r="U17" t="n">
-        <v>1953149</v>
+        <v>0.178551876322691</v>
       </c>
       <c r="V17" t="n">
-        <v>816756</v>
+        <v>0.185950003703934</v>
       </c>
       <c r="W17" t="n">
-        <v>72.8827</v>
+        <v>0.0980406896247424</v>
       </c>
       <c r="X17" t="n">
-        <v>49.2</v>
+        <v>0.294341267423526</v>
       </c>
       <c r="Y17" t="n">
-        <v>40.9</v>
+        <v>0.0972860067592406</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.133709112665</v>
+        <v>-0.667542974429342</v>
       </c>
       <c r="AA17" t="n">
-        <v>75.2</v>
+        <v>0.184513164366271</v>
       </c>
       <c r="AB17" t="n">
-        <v>4.05381719</v>
+        <v>-0.276667832845603</v>
       </c>
       <c r="AC17" t="n">
-        <v>16385</v>
+        <v>0.261179992687936</v>
       </c>
       <c r="AD17" t="n">
-        <v>84.1455757</v>
+        <v>0.412561736251896</v>
       </c>
       <c r="AE17" t="n">
-        <v>76</v>
+        <v>0.742245671341988</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.82349932</v>
+        <v>0.934057402253183</v>
       </c>
       <c r="AG17" t="n">
-        <v>4.3472</v>
+        <v>-0.571270021493135</v>
       </c>
       <c r="AH17" t="n">
-        <v>23.6</v>
+        <v>-1.17954234023021</v>
       </c>
       <c r="AI17" t="n">
-        <v>80.5769</v>
+        <v>0.0757088911683765</v>
       </c>
       <c r="AJ17" t="n">
-        <v>54.6416</v>
+        <v>-0.218706103339909</v>
       </c>
       <c r="AK17" t="n">
-        <v>50.52</v>
+        <v>0.18467884050523</v>
       </c>
       <c r="AL17"/>
       <c r="AM17" t="n">
-        <v>0.254716981132075</v>
+        <v>-0.284839223914401</v>
       </c>
       <c r="AN17" t="n">
-        <v>18.2</v>
+        <v>0.218705083448675</v>
       </c>
       <c r="AO17" t="n">
-        <v>62160</v>
+        <v>2.04728641683885</v>
       </c>
       <c r="AP17" t="n">
-        <v>57.3</v>
+        <v>0.276230421099804</v>
       </c>
       <c r="AQ17" t="n">
-        <v>24.24</v>
+        <v>0.165019817090765</v>
       </c>
       <c r="AR17" t="n">
-        <v>60</v>
+        <v>-0.288813415165112</v>
       </c>
       <c r="AS17" t="n">
-        <v>17.3</v>
+        <v>-0.756788342081252</v>
       </c>
       <c r="AT17" t="n">
-        <v>48.2051</v>
+        <v>0.397100366337322</v>
       </c>
       <c r="AU17" t="n">
-        <v>15.41651</v>
+        <v>-0.127636234996103</v>
       </c>
       <c r="AV17" t="n">
-        <v>21.64421</v>
+        <v>-0.296947243799547</v>
       </c>
       <c r="AW17" t="n">
-        <v>9.3</v>
+        <v>0.258051268493743</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.208755760368664</v>
+        <v>0.651110119481952</v>
       </c>
       <c r="AY17" t="n">
-        <v>1.10334310278511</v>
+        <v>0.375976042655715</v>
       </c>
       <c r="AZ17" t="n">
-        <v>107</v>
+        <v>-0.118882616687667</v>
       </c>
     </row>
     <row r="18">
@@ -3385,152 +3385,152 @@
         <v>85</v>
       </c>
       <c r="C18" t="n">
-        <v>34.7</v>
+        <v>0.596579623149059</v>
       </c>
       <c r="D18" t="n">
-        <v>34.30456</v>
+        <v>0.198118301405677</v>
       </c>
       <c r="E18" t="n">
-        <v>17.84944</v>
+        <v>0.839737534991161</v>
       </c>
       <c r="F18" t="n">
-        <v>393</v>
+        <v>-0.0157640801681191</v>
       </c>
       <c r="G18" t="n">
-        <v>73.669199</v>
+        <v>0.199823309902555</v>
       </c>
       <c r="H18" t="n">
-        <v>45.72076361</v>
+        <v>-0.659973251811909</v>
       </c>
       <c r="I18" t="n">
-        <v>92.88110076</v>
+        <v>0.324326037426419</v>
       </c>
       <c r="J18" t="n">
-        <v>0.522735034</v>
+        <v>-0.238174201973358</v>
       </c>
       <c r="K18" t="n">
-        <v>3.4456349</v>
+        <v>-0.129409388126785</v>
       </c>
       <c r="L18" t="n">
-        <v>24.03563267</v>
+        <v>0.186279503889546</v>
       </c>
       <c r="M18" t="n">
-        <v>7.007274</v>
+        <v>-0.0858044424536728</v>
       </c>
       <c r="N18" t="n">
-        <v>18.8170168</v>
+        <v>0.214023305822645</v>
       </c>
       <c r="O18" t="n">
-        <v>200.097659025322</v>
+        <v>-0.182042244459146</v>
       </c>
       <c r="P18" t="n">
-        <v>2.2</v>
+        <v>-0.0958238486221912</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.845</v>
+        <v>0.159656926711312</v>
       </c>
       <c r="R18" t="n">
-        <v>79.8</v>
+        <v>0.69005486393301</v>
       </c>
       <c r="S18" t="n">
-        <v>204080</v>
+        <v>-0.171264264428937</v>
       </c>
       <c r="T18" t="n">
-        <v>8.27</v>
+        <v>0.0195572286908547</v>
       </c>
       <c r="U18" t="n">
-        <v>566046</v>
+        <v>-0.188449441672817</v>
       </c>
       <c r="V18" t="n">
-        <v>233960</v>
+        <v>-0.188064618192159</v>
       </c>
       <c r="W18" t="n">
-        <v>60.6236</v>
+        <v>-1.0860783319583</v>
       </c>
       <c r="X18" t="n">
-        <v>32.5</v>
+        <v>-0.750239611805685</v>
       </c>
       <c r="Y18" t="n">
-        <v>25</v>
+        <v>-0.812624291753659</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.172238139896984</v>
+        <v>-0.602743776491713</v>
       </c>
       <c r="AA18" t="n">
-        <v>74.7</v>
+        <v>-0.248907020386707</v>
       </c>
       <c r="AB18" t="n">
-        <v>3.63853071</v>
+        <v>-0.377734070736816</v>
       </c>
       <c r="AC18" t="n">
-        <v>6369</v>
+        <v>0.0364202361141439</v>
       </c>
       <c r="AD18" t="n">
-        <v>86.7219034</v>
+        <v>0.475947148942679</v>
       </c>
       <c r="AE18" t="n">
-        <v>66</v>
+        <v>0.485548079276826</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.47571818</v>
+        <v>0.172521460246689</v>
       </c>
       <c r="AG18" t="n">
-        <v>8.9534</v>
+        <v>-0.324825296944446</v>
       </c>
       <c r="AH18" t="n">
-        <v>40.1</v>
+        <v>-0.122785124153657</v>
       </c>
       <c r="AI18" t="n">
-        <v>82.7903</v>
+        <v>0.220083942613902</v>
       </c>
       <c r="AJ18" t="n">
-        <v>53.507</v>
+        <v>-0.302389244510207</v>
       </c>
       <c r="AK18" t="n">
-        <v>54.88</v>
+        <v>0.569520996194127</v>
       </c>
       <c r="AL18"/>
       <c r="AM18" t="n">
-        <v>0.160377358490566</v>
+        <v>-0.677959262882025</v>
       </c>
       <c r="AN18" t="n">
-        <v>18.6</v>
+        <v>0.26393213172462</v>
       </c>
       <c r="AO18" t="n">
-        <v>29144</v>
+        <v>0.429691083419157</v>
       </c>
       <c r="AP18" t="n">
-        <v>65.4</v>
+        <v>0.77030817745182</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23.31</v>
+        <v>0.094566052055293</v>
       </c>
       <c r="AR18" t="n">
-        <v>68.4</v>
+        <v>0.335533232324175</v>
       </c>
       <c r="AS18" t="n">
-        <v>22.5</v>
+        <v>-0.264745469051478</v>
       </c>
       <c r="AT18" t="n">
-        <v>53.0303</v>
+        <v>0.639543367458306</v>
       </c>
       <c r="AU18" t="n">
-        <v>14.47125</v>
+        <v>-0.187939466146951</v>
       </c>
       <c r="AV18" t="n">
-        <v>31.34089</v>
+        <v>0.30677739607685</v>
       </c>
       <c r="AW18" t="n">
-        <v>7.9</v>
+        <v>-1.06736929295211</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.0864864864864865</v>
+        <v>-0.275067127316301</v>
       </c>
       <c r="AY18" t="n">
-        <v>1.01157824211716</v>
+        <v>0.159659490402954</v>
       </c>
       <c r="AZ18" t="n">
-        <v>63</v>
+        <v>-0.208059055898094</v>
       </c>
     </row>
     <row r="19">
@@ -3541,152 +3541,152 @@
         <v>87</v>
       </c>
       <c r="C19" t="n">
-        <v>26.9</v>
+        <v>0.0853861607520309</v>
       </c>
       <c r="D19" t="n">
-        <v>36.61327</v>
+        <v>0.301686426092132</v>
       </c>
       <c r="E19" t="n">
-        <v>9.61098</v>
+        <v>-0.226575433163305</v>
       </c>
       <c r="F19" t="n">
-        <v>237</v>
+        <v>-0.0518226799661626</v>
       </c>
       <c r="G19" t="n">
-        <v>59.7303246</v>
+        <v>-0.497351432476377</v>
       </c>
       <c r="H19" t="n">
-        <v>35.79908058</v>
+        <v>-1.02831717835859</v>
       </c>
       <c r="I19" t="n">
-        <v>88.18917562</v>
+        <v>0.0933371488486319</v>
       </c>
       <c r="J19" t="n">
-        <v>1.836900255</v>
+        <v>-0.159622963590719</v>
       </c>
       <c r="K19" t="n">
-        <v>4.313914857</v>
+        <v>-0.0774651038348462</v>
       </c>
       <c r="L19" t="n">
-        <v>11.32484741</v>
+        <v>-0.369599027196089</v>
       </c>
       <c r="M19" t="n">
-        <v>6.278495</v>
+        <v>-0.130411305996031</v>
       </c>
       <c r="N19" t="n">
-        <v>24.2941614</v>
+        <v>0.478377089395938</v>
       </c>
       <c r="O19" t="n">
-        <v>461.019266979366</v>
+        <v>0.339941985230996</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>1.39476935216745</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.003</v>
+        <v>0.241973110168279</v>
       </c>
       <c r="R19" t="n">
-        <v>86.3</v>
+        <v>1.04172932975908</v>
       </c>
       <c r="S19" t="n">
-        <v>68646</v>
+        <v>-0.282198164685998</v>
       </c>
       <c r="T19" t="n">
-        <v>4.96</v>
+        <v>-0.182377258282008</v>
       </c>
       <c r="U19" t="n">
-        <v>225823</v>
+        <v>-0.278466036988656</v>
       </c>
       <c r="V19" t="n">
-        <v>96059</v>
+        <v>-0.276563836399033</v>
       </c>
       <c r="W19" t="n">
-        <v>66.9007</v>
+        <v>-0.479766815584428</v>
       </c>
       <c r="X19" t="n">
-        <v>41.8</v>
+        <v>-0.168526906606184</v>
       </c>
       <c r="Y19" t="n">
-        <v>40.5</v>
+        <v>0.0743951816394193</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.258999588190655</v>
+        <v>-0.456825940895025</v>
       </c>
       <c r="AA19" t="n">
-        <v>75.7</v>
+        <v>0.617933349119249</v>
       </c>
       <c r="AB19" t="n">
-        <v>2.27919638</v>
+        <v>-0.708548612952284</v>
       </c>
       <c r="AC19" t="n">
-        <v>2650</v>
+        <v>-0.0470343899539406</v>
       </c>
       <c r="AD19" t="n">
-        <v>94.5348497</v>
+        <v>0.668169134350989</v>
       </c>
       <c r="AE19" t="n">
-        <v>64</v>
+        <v>0.434208560863794</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.51157422</v>
+        <v>0.251035387706995</v>
       </c>
       <c r="AG19" t="n">
-        <v>5.2977</v>
+        <v>-0.520415583847455</v>
       </c>
       <c r="AH19" t="n">
-        <v>32</v>
+        <v>-0.64155684840942</v>
       </c>
       <c r="AI19" t="n">
-        <v>84.771</v>
+        <v>0.349280501933569</v>
       </c>
       <c r="AJ19" t="n">
-        <v>55.8727</v>
+        <v>-0.12790554358779</v>
       </c>
       <c r="AK19" t="n">
-        <v>55.26</v>
+        <v>0.603062284992701</v>
       </c>
       <c r="AL19"/>
       <c r="AM19" t="n">
-        <v>0.254716981132075</v>
+        <v>-0.284839223914401</v>
       </c>
       <c r="AN19" t="n">
-        <v>18.6</v>
+        <v>0.26393213172462</v>
       </c>
       <c r="AO19" t="n">
-        <v>29740</v>
+        <v>0.458891677637661</v>
       </c>
       <c r="AP19" t="n">
-        <v>64.2</v>
+        <v>0.697111472807077</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23.5</v>
+        <v>0.108959832008777</v>
       </c>
       <c r="AR19" t="n">
-        <v>60.1</v>
+        <v>-0.281380716980716</v>
       </c>
       <c r="AS19" t="n">
-        <v>23.3</v>
+        <v>-0.189046565508436</v>
       </c>
       <c r="AT19" t="n">
-        <v>22.8571</v>
+        <v>-0.876514238739087</v>
       </c>
       <c r="AU19" t="n">
-        <v>13.79712</v>
+        <v>-0.230945852977793</v>
       </c>
       <c r="AV19" t="n">
-        <v>22.37018</v>
+        <v>-0.251747652103103</v>
       </c>
       <c r="AW19" t="n">
-        <v>9.23</v>
+        <v>0.19178024042145</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.133586337760911</v>
+        <v>0.0817094298094902</v>
       </c>
       <c r="AY19" t="n">
-        <v>1.18408895793304</v>
+        <v>0.566317583711436</v>
       </c>
       <c r="AZ19" t="n">
-        <v>52</v>
+        <v>-0.230353165700701</v>
       </c>
     </row>
     <row r="20">
@@ -3697,152 +3697,152 @@
         <v>89</v>
       </c>
       <c r="C20" t="n">
-        <v>24.1</v>
+        <v>-0.0981191847238249</v>
       </c>
       <c r="D20" t="n">
-        <v>63.81078</v>
+        <v>1.52175958679275</v>
       </c>
       <c r="E20" t="n">
-        <v>9.40145</v>
+        <v>-0.253695132259666</v>
       </c>
       <c r="F20" t="n">
-        <v>191</v>
+        <v>-0.0624553440091755</v>
       </c>
       <c r="G20" t="n">
-        <v>69.64784</v>
+        <v>-0.00131128994994081</v>
       </c>
       <c r="H20" t="n">
-        <v>57.65195853</v>
+        <v>-0.217025903873235</v>
       </c>
       <c r="I20" t="n">
-        <v>93.06455198</v>
+        <v>0.333357552668378</v>
       </c>
       <c r="J20" t="n">
-        <v>0.495067045</v>
+        <v>-0.239827993113755</v>
       </c>
       <c r="K20" t="n">
-        <v>2.813217678</v>
+        <v>-0.167243337541198</v>
       </c>
       <c r="L20" t="n">
-        <v>12.38279602</v>
+        <v>-0.323331947132863</v>
       </c>
       <c r="M20" t="n">
-        <v>3.357513</v>
+        <v>-0.309197804349695</v>
       </c>
       <c r="N20" t="n">
-        <v>12.0453507</v>
+        <v>-0.112810416009348</v>
       </c>
       <c r="O20" t="n">
-        <v>185.280915982006</v>
+        <v>-0.211683738180679</v>
       </c>
       <c r="P20" t="n">
-        <v>1.2</v>
+        <v>-0.62817856318992</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.108</v>
+        <v>-0.224311599920234</v>
       </c>
       <c r="R20" t="n">
-        <v>55.5</v>
+        <v>-0.624666600616777</v>
       </c>
       <c r="S20" t="n">
-        <v>46971</v>
+        <v>-0.299952142919469</v>
       </c>
       <c r="T20" t="n">
-        <v>5.04</v>
+        <v>-0.177496666451848</v>
       </c>
       <c r="U20" t="n">
-        <v>137069</v>
+        <v>-0.301948673085163</v>
       </c>
       <c r="V20" t="n">
-        <v>58449</v>
+        <v>-0.300700395211228</v>
       </c>
       <c r="W20" t="n">
-        <v>73.8716</v>
+        <v>0.193559553199023</v>
       </c>
       <c r="X20" t="n">
-        <v>44.5</v>
+        <v>0.000357427161412769</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.5</v>
+        <v>-0.268967195157901</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.752834421597314</v>
+        <v>0.373719323737299</v>
       </c>
       <c r="AA20" t="n">
-        <v>75.1</v>
+        <v>0.0978291274156677</v>
       </c>
       <c r="AB20" t="n">
-        <v>6.27362018</v>
+        <v>0.263554755327665</v>
       </c>
       <c r="AC20" t="n">
-        <v>1456</v>
+        <v>-0.0738278353761758</v>
       </c>
       <c r="AD20" t="n">
-        <v>66.3330774</v>
+        <v>-0.0256793135180424</v>
       </c>
       <c r="AE20" t="n">
-        <v>56</v>
+        <v>0.228850487211665</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.43818288</v>
+        <v>0.0903304591935657</v>
       </c>
       <c r="AG20" t="n">
-        <v>15.6224</v>
+        <v>0.0319850604033036</v>
       </c>
       <c r="AH20" t="n">
-        <v>50.8</v>
+        <v>0.562505918999018</v>
       </c>
       <c r="AI20" t="n">
-        <v>78.3995</v>
+        <v>-0.066317962096955</v>
       </c>
       <c r="AJ20" t="n">
-        <v>56.4647</v>
+        <v>-0.0842422088682271</v>
       </c>
       <c r="AK20" t="n">
-        <v>41.84</v>
+        <v>-0.581474808893768</v>
       </c>
       <c r="AL20"/>
       <c r="AM20" t="n">
-        <v>0.216981132075472</v>
+        <v>-0.442087239501448</v>
       </c>
       <c r="AN20" t="n">
-        <v>19.1</v>
+        <v>0.32046594206955</v>
       </c>
       <c r="AO20" t="n">
-        <v>9879</v>
+        <v>-0.51418382869407</v>
       </c>
       <c r="AP20" t="n">
-        <v>55.1</v>
+        <v>0.142036462584442</v>
       </c>
       <c r="AQ20" t="n">
-        <v>23.97</v>
+        <v>0.144565498209499</v>
       </c>
       <c r="AR20" t="n">
-        <v>67.1</v>
+        <v>0.238908155927023</v>
       </c>
       <c r="AS20" t="n">
-        <v>26.67</v>
+        <v>0.12983506566663</v>
       </c>
       <c r="AT20" t="n">
-        <v>58.3333</v>
+        <v>0.9059935114823</v>
       </c>
       <c r="AU20" t="n">
-        <v>10.89284</v>
+        <v>-0.41622553070327</v>
       </c>
       <c r="AV20" t="n">
-        <v>18.48112</v>
+        <v>-0.493884274942848</v>
       </c>
       <c r="AW20" t="n">
-        <v>9.26</v>
+        <v>0.220182109595289</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.303182579564489</v>
+        <v>1.36638361911017</v>
       </c>
       <c r="AY20" t="n">
-        <v>1.03488591363379</v>
+        <v>0.214602473008911</v>
       </c>
       <c r="AZ20" t="n">
-        <v>11</v>
+        <v>-0.31344939314678</v>
       </c>
     </row>
     <row r="21">
@@ -3853,152 +3853,152 @@
         <v>91</v>
       </c>
       <c r="C21" t="n">
-        <v>14.2</v>
+        <v>-0.746941656227744</v>
       </c>
       <c r="D21" t="n">
-        <v>23.50452</v>
+        <v>-0.286368658558419</v>
       </c>
       <c r="E21" t="n">
-        <v>9.8719</v>
+        <v>-0.192804269662983</v>
       </c>
       <c r="F21" t="n">
-        <v>700</v>
+        <v>0.0551973950754664</v>
       </c>
       <c r="G21" t="n">
-        <v>90.2997561</v>
+        <v>1.0316267991291</v>
       </c>
       <c r="H21" t="n">
-        <v>97.56305199</v>
+        <v>1.26467924971582</v>
       </c>
       <c r="I21" t="n">
-        <v>98.39411629</v>
+        <v>0.595738153346661</v>
       </c>
       <c r="J21" t="n">
-        <v>0.447590219</v>
+        <v>-0.242665812451219</v>
       </c>
       <c r="K21" t="n">
-        <v>0.415723202</v>
+        <v>-0.31067188687681</v>
       </c>
       <c r="L21" t="n">
-        <v>1.703853769</v>
+        <v>-0.790352246084417</v>
       </c>
       <c r="M21" t="n">
-        <v>1.526889</v>
+        <v>-0.421246031542529</v>
       </c>
       <c r="N21" t="n">
-        <v>9.086674</v>
+        <v>-0.255610622528479</v>
       </c>
       <c r="O21" t="n">
-        <v>1661.05553340986</v>
+        <v>2.74066307170875</v>
       </c>
       <c r="P21" t="n">
-        <v>2.2</v>
+        <v>-0.0958238486221912</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.841</v>
+        <v>0.678561475591936</v>
       </c>
       <c r="R21" t="n">
-        <v>70.7</v>
+        <v>0.197710611776506</v>
       </c>
       <c r="S21" t="n">
-        <v>201804</v>
+        <v>-0.173128534530869</v>
       </c>
       <c r="T21" t="n">
-        <v>1.63</v>
+        <v>-0.38553189321241</v>
       </c>
       <c r="U21" t="n">
-        <v>578884</v>
+        <v>-0.185052748766503</v>
       </c>
       <c r="V21" t="n">
-        <v>239872</v>
+        <v>-0.184270538540532</v>
       </c>
       <c r="W21" t="n">
-        <v>76.8941</v>
+        <v>0.485505923057718</v>
       </c>
       <c r="X21" t="n">
-        <v>58.9</v>
+        <v>0.90107387392193</v>
       </c>
       <c r="Y21" t="n">
-        <v>59.1</v>
+        <v>1.13881854971111</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0960536363505381</v>
+        <v>-0.730873009948925</v>
       </c>
       <c r="AA21" t="n">
-        <v>76.4</v>
+        <v>1.22472160777342</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.860314</v>
+        <v>-0.0803946518406148</v>
       </c>
       <c r="AC21" t="n">
-        <v>7509</v>
+        <v>0.0620019176730619</v>
       </c>
       <c r="AD21" t="n">
-        <v>63.1264498</v>
+        <v>-0.104572000101218</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>-0.61825156660337</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.76484107</v>
+        <v>0.805613503109594</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.8162</v>
+        <v>-0.653182850567869</v>
       </c>
       <c r="AH21" t="n">
-        <v>42.6</v>
+        <v>0.0373296055549121</v>
       </c>
       <c r="AI21" t="n">
-        <v>83.8981</v>
+        <v>0.292343218836614</v>
       </c>
       <c r="AJ21" t="n">
-        <v>72.7397</v>
+        <v>1.1161307177549</v>
       </c>
       <c r="AK21" t="n">
-        <v>58.72</v>
+        <v>0.908464546158661</v>
       </c>
       <c r="AL21"/>
       <c r="AM21" t="n">
-        <v>0.169811320754717</v>
+        <v>-0.638647258985262</v>
       </c>
       <c r="AN21" t="n">
-        <v>16.1</v>
+        <v>-0.0187369200000339</v>
       </c>
       <c r="AO21" t="n">
-        <v>16292</v>
+        <v>-0.199983475131541</v>
       </c>
       <c r="AP21" t="n">
-        <v>36.3</v>
+        <v>-1.0047119101832</v>
       </c>
       <c r="AQ21" t="n">
-        <v>31.14</v>
+        <v>0.687741299612012</v>
       </c>
       <c r="AR21" t="n">
-        <v>70.3</v>
+        <v>0.476754497827703</v>
       </c>
       <c r="AS21" t="n">
-        <v>19.05</v>
+        <v>-0.591196990580848</v>
       </c>
       <c r="AT21" t="n">
-        <v>46.3415</v>
+        <v>0.303463464884727</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.508485</v>
+        <v>-0.632131780689019</v>
       </c>
       <c r="AV21" t="n">
-        <v>11.94135</v>
+        <v>-0.90105665643058</v>
       </c>
       <c r="AW21" t="n">
-        <v>10.08</v>
+        <v>0.996499867013574</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.0221407226297201</v>
+        <v>-0.762479708742265</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.985993203939411</v>
+        <v>0.0993480900741032</v>
       </c>
       <c r="AZ21" t="n">
-        <v>151</v>
+        <v>-0.0297061774772397</v>
       </c>
     </row>
     <row r="22">
@@ -4009,152 +4009,152 @@
         <v>93</v>
       </c>
       <c r="C22" t="n">
-        <v>36.1</v>
+        <v>0.688332295886986</v>
       </c>
       <c r="D22" t="n">
-        <v>53.33333</v>
+        <v>1.05174392956594</v>
       </c>
       <c r="E22" t="n">
-        <v>21.04615</v>
+        <v>1.2534912375556</v>
       </c>
       <c r="F22" t="n">
-        <v>546</v>
+        <v>0.0196010850184235</v>
       </c>
       <c r="G22" t="n">
-        <v>34.0480553</v>
+        <v>-1.78189055443976</v>
       </c>
       <c r="H22" t="n">
-        <v>52.41729786</v>
+        <v>-0.411363443129142</v>
       </c>
       <c r="I22" t="n">
-        <v>88.36119435</v>
+        <v>0.101805829416128</v>
       </c>
       <c r="J22" t="n">
-        <v>4.461642739</v>
+        <v>-0.00273494885781064</v>
       </c>
       <c r="K22" t="n">
-        <v>5.914122752</v>
+        <v>0.0182662938024775</v>
       </c>
       <c r="L22" t="n">
-        <v>51.67193068</v>
+        <v>1.39489285296312</v>
       </c>
       <c r="M22" t="n">
-        <v>9.887345</v>
+        <v>0.0904779889683406</v>
       </c>
       <c r="N22" t="n">
-        <v>20.1033831</v>
+        <v>0.276109634247529</v>
       </c>
       <c r="O22" t="n">
-        <v>82.50348823554</v>
+        <v>-0.417294139221985</v>
       </c>
       <c r="P22" t="n">
-        <v>2.6</v>
+        <v>0.1171180372049</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.502</v>
+        <v>-0.540030632672902</v>
       </c>
       <c r="R22" t="n">
-        <v>77.7</v>
+        <v>0.576436959589201</v>
       </c>
       <c r="S22" t="n">
-        <v>201645</v>
+        <v>-0.173258771326215</v>
       </c>
       <c r="T22" t="n">
-        <v>13.31</v>
+        <v>0.327034513990923</v>
       </c>
       <c r="U22" t="n">
-        <v>559186</v>
+        <v>-0.190264468416649</v>
       </c>
       <c r="V22" t="n">
-        <v>224951</v>
+        <v>-0.19384622569918</v>
       </c>
       <c r="W22" t="n">
-        <v>57.3648</v>
+        <v>-1.40084916077402</v>
       </c>
       <c r="X22" t="n">
-        <v>24.6</v>
+        <v>-1.24438266245902</v>
       </c>
       <c r="Y22" t="n">
-        <v>17.8</v>
+        <v>-1.22465914391044</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.39330378202359</v>
+        <v>1.45087864596377</v>
       </c>
       <c r="AA22" t="n">
-        <v>73</v>
+        <v>-1.72253564854684</v>
       </c>
       <c r="AB22" t="n">
-        <v>3.88134625</v>
+        <v>-0.318641241301764</v>
       </c>
       <c r="AC22" t="n">
-        <v>6078</v>
+        <v>0.0298901752951569</v>
       </c>
       <c r="AD22" t="n">
-        <v>81.9561189</v>
+        <v>0.358694511660614</v>
       </c>
       <c r="AE22" t="n">
-        <v>90</v>
+        <v>1.10162230023322</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.09335944</v>
+        <v>-0.664729010696951</v>
       </c>
       <c r="AG22" t="n">
-        <v>33.3914</v>
+        <v>0.982676804249782</v>
       </c>
       <c r="AH22" t="n">
-        <v>33.9</v>
+        <v>-0.519869653830908</v>
       </c>
       <c r="AI22" t="n">
-        <v>75.5801</v>
+        <v>-0.250221016242393</v>
       </c>
       <c r="AJ22" t="n">
-        <v>62.3061</v>
+        <v>0.346593945575786</v>
       </c>
       <c r="AK22" t="n">
-        <v>36.36</v>
+        <v>-1.06517549998899</v>
       </c>
       <c r="AL22"/>
       <c r="AM22" t="n">
-        <v>0.188679245283019</v>
+        <v>-0.560023251191737</v>
       </c>
       <c r="AN22" t="n">
-        <v>17.5</v>
+        <v>0.139557748965772</v>
       </c>
       <c r="AO22" t="n">
-        <v>19414</v>
+        <v>-0.0470233154836047</v>
       </c>
       <c r="AP22" t="n">
-        <v>72.4</v>
+        <v>1.19728895454615</v>
       </c>
       <c r="AQ22" t="n">
-        <v>19.31</v>
+        <v>-0.208460894333836</v>
       </c>
       <c r="AR22" t="n">
-        <v>55.8</v>
+        <v>-0.600986738909756</v>
       </c>
       <c r="AS22" t="n">
-        <v>35.7</v>
+        <v>0.984286439408719</v>
       </c>
       <c r="AT22" t="n">
-        <v>39.1304</v>
+        <v>-0.0588594907199166</v>
       </c>
       <c r="AU22" t="n">
-        <v>24.38954</v>
+        <v>0.444801720924484</v>
       </c>
       <c r="AV22" t="n">
-        <v>47.22326</v>
+        <v>1.29562905547302</v>
       </c>
       <c r="AW22" t="n">
-        <v>7.25</v>
+        <v>-1.68274312505197</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.230702515177797</v>
+        <v>0.817354542957195</v>
       </c>
       <c r="AY22" t="n">
-        <v>1.08887782411153</v>
+        <v>0.341877160063099</v>
       </c>
       <c r="AZ22" t="n">
-        <v>19</v>
+        <v>-0.297235495108521</v>
       </c>
     </row>
     <row r="23">
@@ -4165,152 +4165,152 @@
         <v>95</v>
       </c>
       <c r="C23" t="n">
-        <v>23.9</v>
+        <v>-0.111226709400672</v>
       </c>
       <c r="D23" t="n">
-        <v>32.30183</v>
+        <v>0.10827635921575</v>
       </c>
       <c r="E23" t="n">
-        <v>14.27741</v>
+        <v>0.377405750696912</v>
       </c>
       <c r="F23" t="n">
-        <v>639</v>
+        <v>0.0410975579749494</v>
       </c>
       <c r="G23" t="n">
-        <v>52.1506935</v>
+        <v>-0.876458611996542</v>
       </c>
       <c r="H23" t="n">
-        <v>26.18369989</v>
+        <v>-1.3852895859518</v>
       </c>
       <c r="I23" t="n">
-        <v>88.57535827</v>
+        <v>0.112349366317968</v>
       </c>
       <c r="J23" t="n">
-        <v>0.939352182</v>
+        <v>-0.213271859114261</v>
       </c>
       <c r="K23" t="n">
-        <v>4.120243865</v>
+        <v>-0.0890513451000582</v>
       </c>
       <c r="L23" t="n">
-        <v>25.65155038</v>
+        <v>0.256948148242842</v>
       </c>
       <c r="M23" t="n">
-        <v>7.058375</v>
+        <v>-0.0826766693786005</v>
       </c>
       <c r="N23" t="n">
-        <v>10.0725446</v>
+        <v>-0.208027686116014</v>
       </c>
       <c r="O23" t="n">
-        <v>162.595095499517</v>
+        <v>-0.257067639584225</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>0.330059923031991</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.156</v>
+        <v>-0.199304151781408</v>
       </c>
       <c r="R23" t="n">
-        <v>67.4</v>
+        <v>0.0191681906648063</v>
       </c>
       <c r="S23" t="n">
-        <v>292653</v>
+        <v>-0.0987141784278682</v>
       </c>
       <c r="T23" t="n">
-        <v>8.32</v>
+        <v>0.0226075985847046</v>
       </c>
       <c r="U23" t="n">
-        <v>840575</v>
+        <v>-0.115814240950168</v>
       </c>
       <c r="V23" t="n">
-        <v>323997</v>
+        <v>-0.130282556352925</v>
       </c>
       <c r="W23" t="n">
-        <v>59.2832</v>
+        <v>-1.21554894044749</v>
       </c>
       <c r="X23" t="n">
-        <v>37.9</v>
+        <v>-0.412470944270491</v>
       </c>
       <c r="Y23" t="n">
-        <v>26</v>
+        <v>-0.755397228954106</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.06781723176511</v>
+        <v>0.903466242602415</v>
       </c>
       <c r="AA23" t="n">
-        <v>74.8</v>
+        <v>-0.162222983436117</v>
       </c>
       <c r="AB23" t="n">
-        <v>4.27126893</v>
+        <v>-0.223747667265693</v>
       </c>
       <c r="AC23" t="n">
-        <v>8171</v>
+        <v>0.0768572450344687</v>
       </c>
       <c r="AD23" t="n">
-        <v>93.4419766</v>
+        <v>0.641281168017298</v>
       </c>
       <c r="AE23" t="n">
-        <v>71</v>
+        <v>0.613896875309407</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.3129832</v>
+        <v>-0.183819128813741</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.3249</v>
+        <v>-0.144440513648909</v>
       </c>
       <c r="AH23" t="n">
-        <v>40</v>
+        <v>-0.129189713342</v>
       </c>
       <c r="AI23" t="n">
-        <v>77.945</v>
+        <v>-0.0959639641218906</v>
       </c>
       <c r="AJ23" t="n">
-        <v>50.6801</v>
+        <v>-0.510889043359417</v>
       </c>
       <c r="AK23" t="n">
-        <v>41.73</v>
+        <v>-0.591184129335461</v>
       </c>
       <c r="AL23"/>
       <c r="AM23" t="n">
-        <v>0.339622641509434</v>
+        <v>0.0689688111564631</v>
       </c>
       <c r="AN23" t="n">
-        <v>19.1</v>
+        <v>0.32046594206955</v>
       </c>
       <c r="AO23" t="n">
-        <v>28296</v>
+        <v>0.38814392922907</v>
       </c>
       <c r="AP23" t="n">
-        <v>67.7</v>
+        <v>0.910601861354244</v>
       </c>
       <c r="AQ23" t="n">
-        <v>20.85</v>
+        <v>-0.0917955199740208</v>
       </c>
       <c r="AR23" t="n">
-        <v>57.6</v>
+        <v>-0.467198171590623</v>
       </c>
       <c r="AS23" t="n">
-        <v>19.5</v>
+        <v>-0.548616357337886</v>
       </c>
       <c r="AT23" t="n">
-        <v>40.2985</v>
+        <v>-0.000168105987797806</v>
       </c>
       <c r="AU23" t="n">
-        <v>15.02703</v>
+        <v>-0.152483263822704</v>
       </c>
       <c r="AV23" t="n">
-        <v>32.02668</v>
+        <v>0.349475342258515</v>
       </c>
       <c r="AW23" t="n">
-        <v>8.28</v>
+        <v>-0.707612283416807</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.217057438312686</v>
+        <v>0.713994481005267</v>
       </c>
       <c r="AY23" t="n">
-        <v>1.14894994322583</v>
+        <v>0.483484672990551</v>
       </c>
       <c r="AZ23" t="n">
-        <v>83</v>
+        <v>-0.167524310802445</v>
       </c>
     </row>
     <row r="24">
@@ -4321,152 +4321,152 @@
         <v>97</v>
       </c>
       <c r="C24" t="n">
-        <v>15.8</v>
+        <v>-0.642081458812969</v>
       </c>
       <c r="D24" t="n">
-        <v>14.90424</v>
+        <v>-0.672174962242482</v>
       </c>
       <c r="E24" t="n">
-        <v>11.0043</v>
+        <v>-0.0462364881676405</v>
       </c>
       <c r="F24" t="n">
-        <v>213</v>
+        <v>-0.0573701568581693</v>
       </c>
       <c r="G24" t="n">
-        <v>77.2336757</v>
+        <v>0.378106222405031</v>
       </c>
       <c r="H24" t="n">
-        <v>82.09357318</v>
+        <v>0.690372597379024</v>
       </c>
       <c r="I24" t="n">
-        <v>87.71532822</v>
+        <v>0.0700090945818767</v>
       </c>
       <c r="J24" t="n">
-        <v>0.111757892</v>
+        <v>-0.262739426296136</v>
       </c>
       <c r="K24" t="n">
-        <v>1.479866927</v>
+        <v>-0.247010179920141</v>
       </c>
       <c r="L24" t="n">
-        <v>10.09392104</v>
+        <v>-0.42343091314443</v>
       </c>
       <c r="M24" t="n">
-        <v>5.449198</v>
+        <v>-0.181170641974547</v>
       </c>
       <c r="N24" t="n">
-        <v>6.76473601</v>
+        <v>-0.367678705025163</v>
       </c>
       <c r="O24" t="n">
-        <v>586.74420986917</v>
+        <v>0.591459818429119</v>
       </c>
       <c r="P24" t="n">
-        <v>2.4</v>
+        <v>0.0106470942913543</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.685</v>
+        <v>-0.444689736643631</v>
       </c>
       <c r="R24" t="n">
-        <v>50.7</v>
+        <v>-0.884364667688339</v>
       </c>
       <c r="S24" t="n">
-        <v>86777</v>
+        <v>-0.26734707451986</v>
       </c>
       <c r="T24" t="n">
-        <v>4.54</v>
+        <v>-0.208000365390347</v>
       </c>
       <c r="U24" t="n">
-        <v>251468</v>
+        <v>-0.271680853191926</v>
       </c>
       <c r="V24" t="n">
-        <v>102161</v>
+        <v>-0.272647822523148</v>
       </c>
       <c r="W24" t="n">
-        <v>75.57</v>
+        <v>0.357609748258744</v>
       </c>
       <c r="X24" t="n">
-        <v>51</v>
+        <v>0.406930823268591</v>
       </c>
       <c r="Y24" t="n">
-        <v>43.4</v>
+        <v>0.240353663758124</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.193278171743118</v>
+        <v>-0.567358061197041</v>
       </c>
       <c r="AA24" t="n">
-        <v>75.4</v>
+        <v>0.357881238267464</v>
       </c>
       <c r="AB24" t="n">
-        <v>5.31514972</v>
+        <v>0.030296491003576</v>
       </c>
       <c r="AC24" t="n">
-        <v>2344</v>
+        <v>-0.0539010518460712</v>
       </c>
       <c r="AD24" t="n">
-        <v>57.4519366</v>
+        <v>-0.24418209745075</v>
       </c>
       <c r="AE24" t="n">
-        <v>85</v>
+        <v>0.973273504200634</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.25501396</v>
+        <v>-0.310754303592916</v>
       </c>
       <c r="AG24" t="n">
-        <v>1.688</v>
+        <v>-0.71354474068029</v>
       </c>
       <c r="AH24" t="n">
-        <v>54.7</v>
+        <v>0.812284897344385</v>
       </c>
       <c r="AI24" t="n">
-        <v>85.9869</v>
+        <v>0.428590895469583</v>
       </c>
       <c r="AJ24" t="n">
-        <v>57.2778</v>
+        <v>-0.0242715036985029</v>
       </c>
       <c r="AK24" t="n">
-        <v>57.52</v>
+        <v>0.802544686794744</v>
       </c>
       <c r="AL24"/>
       <c r="AM24" t="n">
-        <v>0.207547169811321</v>
+        <v>-0.481399243398211</v>
       </c>
       <c r="AN24" t="n">
-        <v>15.5</v>
+        <v>-0.0865774924139509</v>
       </c>
       <c r="AO24" t="n">
-        <v>28905</v>
+        <v>0.417981449160394</v>
       </c>
       <c r="AP24" t="n">
-        <v>42.7</v>
+        <v>-0.614329485411236</v>
       </c>
       <c r="AQ24" t="n">
-        <v>29.19</v>
+        <v>0.540015663247312</v>
       </c>
       <c r="AR24" t="n">
-        <v>70.3</v>
+        <v>0.476754497827703</v>
       </c>
       <c r="AS24" t="n">
-        <v>8</v>
+        <v>-1.63678809576912</v>
       </c>
       <c r="AT24" t="n">
-        <v>50</v>
+        <v>0.487285424513575</v>
       </c>
       <c r="AU24" t="n">
-        <v>17.32156</v>
+        <v>-0.00610282566541826</v>
       </c>
       <c r="AV24" t="n">
-        <v>23.31288</v>
+        <v>-0.193054241780036</v>
       </c>
       <c r="AW24" t="n">
-        <v>9.35</v>
+        <v>0.305387717116808</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.0727934485896269</v>
+        <v>-0.378790489179384</v>
       </c>
       <c r="AY24" t="n">
-        <v>1.01781296387927</v>
+        <v>0.174356548797834</v>
       </c>
       <c r="AZ24" t="n">
-        <v>76</v>
+        <v>-0.181711471585922</v>
       </c>
     </row>
     <row r="25">
@@ -4477,152 +4477,152 @@
         <v>99</v>
       </c>
       <c r="C25" t="n">
-        <v>23.2</v>
+        <v>-0.157103045769636</v>
       </c>
       <c r="D25" t="n">
-        <v>20.7261</v>
+        <v>-0.41100785057099</v>
       </c>
       <c r="E25" t="n">
-        <v>11.57208</v>
+        <v>0.0272519037234097</v>
       </c>
       <c r="F25" t="n">
-        <v>299</v>
+        <v>-0.0374916979951453</v>
       </c>
       <c r="G25" t="n">
-        <v>72.0186767</v>
+        <v>0.117269839208165</v>
       </c>
       <c r="H25" t="n">
-        <v>93.22868553</v>
+        <v>1.10376526404008</v>
       </c>
       <c r="I25" t="n">
-        <v>96.0255485</v>
+        <v>0.479130827993374</v>
       </c>
       <c r="J25" t="n">
-        <v>0.316830254</v>
+        <v>-0.250481692081487</v>
       </c>
       <c r="K25" t="n">
-        <v>2.527424942</v>
+        <v>-0.184340702288217</v>
       </c>
       <c r="L25" t="n">
-        <v>11.14150308</v>
+        <v>-0.377617192459569</v>
       </c>
       <c r="M25" t="n">
-        <v>9.525614</v>
+        <v>0.0683372777842356</v>
       </c>
       <c r="N25" t="n">
-        <v>9.50898862</v>
+        <v>-0.235227653699188</v>
       </c>
       <c r="O25" t="n">
-        <v>471.711414655516</v>
+        <v>0.361332059101196</v>
       </c>
       <c r="P25" t="n">
-        <v>4.2</v>
+        <v>0.968885580513266</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.155</v>
+        <v>0.321163362607892</v>
       </c>
       <c r="R25" t="n">
-        <v>61</v>
+        <v>-0.327095898763944</v>
       </c>
       <c r="S25" t="n">
-        <v>54025</v>
+        <v>-0.294174216162426</v>
       </c>
       <c r="T25" t="n">
-        <v>3.87</v>
+        <v>-0.248875321967935</v>
       </c>
       <c r="U25" t="n">
-        <v>166038</v>
+        <v>-0.294284021519265</v>
       </c>
       <c r="V25" t="n">
-        <v>72824</v>
+        <v>-0.291475108507551</v>
       </c>
       <c r="W25" t="n">
-        <v>81.3223</v>
+        <v>0.913230295268894</v>
       </c>
       <c r="X25" t="n">
-        <v>47</v>
+        <v>0.156731810279558</v>
       </c>
       <c r="Y25" t="n">
-        <v>50</v>
+        <v>0.618052278235177</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.90179772348255</v>
+        <v>2.30607800940193</v>
       </c>
       <c r="AA25" t="n">
-        <v>75.6</v>
+        <v>0.531249312168646</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.18109246</v>
+        <v>0.971132052601074</v>
       </c>
       <c r="AC25" t="n">
-        <v>1087</v>
+        <v>-0.0821082217755098</v>
       </c>
       <c r="AD25" t="n">
-        <v>53.6438116</v>
+        <v>-0.33787342976965</v>
       </c>
       <c r="AE25" t="n">
-        <v>39</v>
+        <v>-0.207535419299111</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.143</v>
+        <v>-0.556031136449573</v>
       </c>
       <c r="AG25" t="n">
-        <v>10.0928</v>
+        <v>-0.263864175162766</v>
       </c>
       <c r="AH25" t="n">
-        <v>34.1</v>
+        <v>-0.507060475454222</v>
       </c>
       <c r="AI25" t="n">
-        <v>93.3748</v>
+        <v>0.910486821454219</v>
       </c>
       <c r="AJ25" t="n">
-        <v>57.0172</v>
+        <v>-0.0434922216510671</v>
       </c>
       <c r="AK25" t="n">
-        <v>39.92</v>
+        <v>-0.750946583876035</v>
       </c>
       <c r="AL25"/>
       <c r="AM25" t="n">
-        <v>0.264150943396226</v>
+        <v>-0.245527220017639</v>
       </c>
       <c r="AN25" t="n">
-        <v>16.8</v>
+        <v>0.060410414482869</v>
       </c>
       <c r="AO25" t="n">
-        <v>18186</v>
+        <v>-0.107188298202268</v>
       </c>
       <c r="AP25" t="n">
-        <v>43</v>
+        <v>-0.596030309250051</v>
       </c>
       <c r="AQ25" t="n">
-        <v>28.02</v>
+        <v>0.451380281428492</v>
       </c>
       <c r="AR25" t="n">
-        <v>59.2</v>
+        <v>-0.348275000640282</v>
       </c>
       <c r="AS25" t="n">
-        <v>36</v>
+        <v>1.01267352823736</v>
       </c>
       <c r="AT25" t="n">
-        <v>54.1667</v>
+        <v>0.696641980256508</v>
       </c>
       <c r="AU25" t="n">
-        <v>11.61427</v>
+        <v>-0.370201621885425</v>
       </c>
       <c r="AV25" t="n">
-        <v>23.62185</v>
+        <v>-0.173817471877079</v>
       </c>
       <c r="AW25" t="n">
-        <v>9.44</v>
+        <v>0.390593324638327</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.232970027247956</v>
+        <v>0.834530715020222</v>
       </c>
       <c r="AY25" t="n">
-        <v>1.02642238424628</v>
+        <v>0.194651464707152</v>
       </c>
       <c r="AZ25" t="n">
-        <v>13</v>
+        <v>-0.309395918637215</v>
       </c>
     </row>
     <row r="26">
@@ -4633,152 +4633,152 @@
         <v>101</v>
       </c>
       <c r="C26" t="n">
-        <v>21.6</v>
+        <v>-0.261963243184411</v>
       </c>
       <c r="D26" t="n">
-        <v>32.72251</v>
+        <v>0.127147953609632</v>
       </c>
       <c r="E26" t="n">
-        <v>10.22579</v>
+        <v>-0.146999896479137</v>
       </c>
       <c r="F26" t="n">
-        <v>289</v>
+        <v>-0.0398031467001481</v>
       </c>
       <c r="G26" t="n">
-        <v>64.7196437</v>
+        <v>-0.247802784689667</v>
       </c>
       <c r="H26" t="n">
-        <v>60.65643319</v>
+        <v>-0.105484344832478</v>
       </c>
       <c r="I26" t="n">
-        <v>91.56498139</v>
+        <v>0.25953196219273</v>
       </c>
       <c r="J26" t="n">
-        <v>4.460655742</v>
+        <v>-0.00279394435958702</v>
       </c>
       <c r="K26" t="n">
-        <v>4.423897031</v>
+        <v>-0.0708854917325004</v>
       </c>
       <c r="L26" t="n">
-        <v>25.8609968</v>
+        <v>0.266107831606948</v>
       </c>
       <c r="M26" t="n">
-        <v>3.152425</v>
+        <v>-0.321750762695332</v>
       </c>
       <c r="N26" t="n">
-        <v>9.64383435</v>
+        <v>-0.228719339326001</v>
       </c>
       <c r="O26" t="n">
-        <v>183.595402718909</v>
+        <v>-0.215055675634112</v>
       </c>
       <c r="P26" t="n">
-        <v>1.8</v>
+        <v>-0.308765734449283</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.777</v>
+        <v>0.124229708514643</v>
       </c>
       <c r="R26" t="n">
-        <v>69.2</v>
+        <v>0.116554965816642</v>
       </c>
       <c r="S26" t="n">
-        <v>124254</v>
+        <v>-0.236649688487299</v>
       </c>
       <c r="T26" t="n">
-        <v>6.28</v>
+        <v>-0.101847493084371</v>
       </c>
       <c r="U26" t="n">
-        <v>366551</v>
+        <v>-0.241232059786623</v>
       </c>
       <c r="V26" t="n">
-        <v>150545</v>
+        <v>-0.241596951436489</v>
       </c>
       <c r="W26" t="n">
-        <v>64.025</v>
+        <v>-0.757533623128729</v>
       </c>
       <c r="X26" t="n">
-        <v>38.7</v>
+        <v>-0.362431141672684</v>
       </c>
       <c r="Y26" t="n">
-        <v>40</v>
+        <v>0.0457816502396426</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.0725100326693952</v>
+        <v>-0.7704693025289</v>
       </c>
       <c r="AA26" t="n">
-        <v>74.7</v>
+        <v>-0.248907020386707</v>
       </c>
       <c r="AB26" t="n">
-        <v>5.94582268</v>
+        <v>0.183780282257545</v>
       </c>
       <c r="AC26" t="n">
-        <v>3714</v>
+        <v>-0.0231581538322837</v>
       </c>
       <c r="AD26" t="n">
-        <v>65.4765595</v>
+        <v>-0.0467522308214362</v>
       </c>
       <c r="AE26" t="n">
-        <v>77</v>
+        <v>0.767915430548505</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.36369184</v>
+        <v>-0.0727824810810088</v>
       </c>
       <c r="AG26" t="n">
-        <v>26.1421</v>
+        <v>0.5948187560385</v>
       </c>
       <c r="AH26" t="n">
-        <v>44.4</v>
+        <v>0.152612210945081</v>
       </c>
       <c r="AI26" t="n">
-        <v>83.7318</v>
+        <v>0.281495847798668</v>
       </c>
       <c r="AJ26" t="n">
-        <v>58.5541</v>
+        <v>0.0698628106639605</v>
       </c>
       <c r="AK26" t="n">
-        <v>57.4</v>
+        <v>0.791952700858352</v>
       </c>
       <c r="AL26"/>
       <c r="AM26" t="n">
-        <v>0.169811320754717</v>
+        <v>-0.638647258985262</v>
       </c>
       <c r="AN26" t="n">
-        <v>18.3</v>
+        <v>0.230011845517661</v>
       </c>
       <c r="AO26" t="n">
-        <v>15684</v>
+        <v>-0.229772000777264</v>
       </c>
       <c r="AP26" t="n">
-        <v>51.5</v>
+        <v>-0.0775536513497873</v>
       </c>
       <c r="AQ26" t="n">
-        <v>23.5</v>
+        <v>0.108959832008777</v>
       </c>
       <c r="AR26" t="n">
-        <v>63</v>
+        <v>-0.0658324696332241</v>
       </c>
       <c r="AS26" t="n">
-        <v>18.5</v>
+        <v>-0.643239986766689</v>
       </c>
       <c r="AT26" t="n">
-        <v>55.5556</v>
+        <v>0.766427498837486</v>
       </c>
       <c r="AU26" t="n">
-        <v>15.64377</v>
+        <v>-0.113138094472499</v>
       </c>
       <c r="AV26" t="n">
-        <v>23.49992</v>
+        <v>-0.181408951160723</v>
       </c>
       <c r="AW26" t="n">
-        <v>8.85</v>
+        <v>-0.167976769113853</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.0619412515964241</v>
+        <v>-0.460994771692441</v>
       </c>
       <c r="AY26" t="n">
-        <v>1.07257945742143</v>
+        <v>0.303457154146988</v>
       </c>
       <c r="AZ26" t="n">
-        <v>80</v>
+        <v>-0.173604522566792</v>
       </c>
     </row>
     <row r="27">
@@ -4789,152 +4789,152 @@
         <v>103</v>
       </c>
       <c r="C27" t="n">
-        <v>29.6</v>
+        <v>0.262337743889464</v>
       </c>
       <c r="D27" t="n">
-        <v>24.38529</v>
+        <v>-0.246857547513685</v>
       </c>
       <c r="E27" t="n">
-        <v>10.81081</v>
+        <v>-0.0712801123653921</v>
       </c>
       <c r="F27" t="n">
-        <v>382</v>
+        <v>-0.0183066737436222</v>
       </c>
       <c r="G27" t="n">
-        <v>76.8853455</v>
+        <v>0.360683939193425</v>
       </c>
       <c r="H27" t="n">
-        <v>90.86533283</v>
+        <v>1.01602545107685</v>
       </c>
       <c r="I27" t="n">
-        <v>94.67358385</v>
+        <v>0.412572048264004</v>
       </c>
       <c r="J27" t="n">
-        <v>0.876379951</v>
+        <v>-0.21703588105741</v>
       </c>
       <c r="K27" t="n">
-        <v>2.111853988</v>
+        <v>-0.209201964608071</v>
       </c>
       <c r="L27" t="n">
-        <v>9.1929088</v>
+        <v>-0.462834722603593</v>
       </c>
       <c r="M27" t="n">
-        <v>4.981611</v>
+        <v>-0.20979055213</v>
       </c>
       <c r="N27" t="n">
-        <v>36.4083706</v>
+        <v>1.06306806816221</v>
       </c>
       <c r="O27" t="n">
-        <v>340.408317555267</v>
+        <v>0.0986549027965519</v>
       </c>
       <c r="P27" t="n">
-        <v>2.8</v>
+        <v>0.223588980118446</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.263</v>
+        <v>0.898418623812441</v>
       </c>
       <c r="R27" t="n">
-        <v>70.5</v>
+        <v>0.186889858981857</v>
       </c>
       <c r="S27" t="n">
-        <v>108400</v>
+        <v>-0.249635689452163</v>
       </c>
       <c r="T27" t="n">
-        <v>4.16</v>
+        <v>-0.231183176583606</v>
       </c>
       <c r="U27" t="n">
-        <v>351855</v>
+        <v>-0.245120344484487</v>
       </c>
       <c r="V27" t="n">
-        <v>158520</v>
+        <v>-0.236478922813058</v>
       </c>
       <c r="W27" t="n">
-        <v>84.2972</v>
+        <v>1.20057893238804</v>
       </c>
       <c r="X27" t="n">
-        <v>48.2</v>
+        <v>0.231791514176268</v>
       </c>
       <c r="Y27" t="n">
-        <v>38.4</v>
+        <v>-0.045781650239643</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.298429267289831</v>
+        <v>-0.390512001402576</v>
       </c>
       <c r="AA27" t="n">
-        <v>75.5</v>
+        <v>0.444565275218055</v>
       </c>
       <c r="AB27" t="n">
-        <v>4.70855066</v>
+        <v>-0.117328553044442</v>
       </c>
       <c r="AC27" t="n">
-        <v>4085</v>
+        <v>-0.0148328872898639</v>
       </c>
       <c r="AD27" t="n">
-        <v>57.0994665</v>
+        <v>-0.252853922370252</v>
       </c>
       <c r="AE27" t="n">
-        <v>53</v>
+        <v>0.151841209592116</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.42315407</v>
+        <v>0.0574218920970675</v>
       </c>
       <c r="AG27" t="n">
-        <v>10.3569</v>
+        <v>-0.249734078390305</v>
       </c>
       <c r="AH27" t="n">
-        <v>52.4</v>
+        <v>0.664979346012502</v>
       </c>
       <c r="AI27" t="n">
-        <v>75.9049</v>
+        <v>-0.229035050438876</v>
       </c>
       <c r="AJ27" t="n">
-        <v>62.2032</v>
+        <v>0.339004490942943</v>
       </c>
       <c r="AK27" t="n">
-        <v>38.47</v>
+        <v>-0.878933080607435</v>
       </c>
       <c r="AL27"/>
       <c r="AM27" t="n">
-        <v>0.358490566037736</v>
+        <v>0.147592818949989</v>
       </c>
       <c r="AN27" t="n">
-        <v>18.6</v>
+        <v>0.26393213172462</v>
       </c>
       <c r="AO27" t="n">
-        <v>58232</v>
+        <v>1.85483686299609</v>
       </c>
       <c r="AP27" t="n">
-        <v>48.1</v>
+        <v>-0.284944314509892</v>
       </c>
       <c r="AQ27" t="n">
-        <v>25.37</v>
+        <v>0.250624929445694</v>
       </c>
       <c r="AR27" t="n">
-        <v>68.5</v>
+        <v>0.342965930508571</v>
       </c>
       <c r="AS27" t="n">
-        <v>30</v>
+        <v>0.444931751664543</v>
       </c>
       <c r="AT27" t="n">
-        <v>16.6667</v>
+        <v>-1.18755194787847</v>
       </c>
       <c r="AU27" t="n">
-        <v>11.97058</v>
+        <v>-0.347470686173178</v>
       </c>
       <c r="AV27" t="n">
-        <v>31.95173</v>
+        <v>0.344808883041677</v>
       </c>
       <c r="AW27" t="n">
-        <v>9.61</v>
+        <v>0.551537249956752</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.102430555555556</v>
+        <v>-0.154292434506871</v>
       </c>
       <c r="AY27" t="n">
-        <v>0.977932801822323</v>
+        <v>0.0803473703754319</v>
       </c>
       <c r="AZ27" t="n">
-        <v>52</v>
+        <v>-0.230353165700701</v>
       </c>
     </row>
     <row r="28">
@@ -4945,152 +4945,152 @@
         <v>105</v>
       </c>
       <c r="C28" t="n">
-        <v>24.9</v>
+        <v>-0.0456890860164376</v>
       </c>
       <c r="D28" t="n">
-        <v>33.51933</v>
+        <v>0.162893089686775</v>
       </c>
       <c r="E28" t="n">
-        <v>10.52901</v>
+        <v>-0.107753797304802</v>
       </c>
       <c r="F28" t="n">
-        <v>610</v>
+        <v>0.0343943567304414</v>
       </c>
       <c r="G28" t="n">
-        <v>82.5230717</v>
+        <v>0.642663688654971</v>
       </c>
       <c r="H28" t="n">
-        <v>93.68719113</v>
+        <v>1.12078735117358</v>
       </c>
       <c r="I28" t="n">
-        <v>96.42677863</v>
+        <v>0.498883850266151</v>
       </c>
       <c r="J28" t="n">
-        <v>0.735186611</v>
+        <v>-0.225475391958438</v>
       </c>
       <c r="K28" t="n">
-        <v>2.429746669</v>
+        <v>-0.190184241507282</v>
       </c>
       <c r="L28" t="n">
-        <v>6.584879085</v>
+        <v>-0.576891226379496</v>
       </c>
       <c r="M28" t="n">
-        <v>3.133573</v>
+        <v>-0.322904649664497</v>
       </c>
       <c r="N28" t="n">
-        <v>20.2790255</v>
+        <v>0.284586995425084</v>
       </c>
       <c r="O28" t="n">
-        <v>414.593410737969</v>
+        <v>0.247065182125677</v>
       </c>
       <c r="P28" t="n">
-        <v>1.9</v>
+        <v>-0.25553026299251</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>1.28238715044399</v>
       </c>
       <c r="R28" t="n">
-        <v>62.5</v>
+        <v>-0.245940252804081</v>
       </c>
       <c r="S28" t="n">
-        <v>95956</v>
+        <v>-0.259828561661497</v>
       </c>
       <c r="T28" t="n">
-        <v>2.17</v>
+        <v>-0.352587898358831</v>
       </c>
       <c r="U28" t="n">
-        <v>344076</v>
+        <v>-0.247178521312514</v>
       </c>
       <c r="V28" t="n">
-        <v>145868</v>
+        <v>-0.244598458630444</v>
       </c>
       <c r="W28" t="n">
-        <v>86.2898</v>
+        <v>1.39304620669092</v>
       </c>
       <c r="X28" t="n">
-        <v>58.9</v>
+        <v>0.90107387392193</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.1</v>
+        <v>1.02436442411201</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.0693300017956471</v>
+        <v>-0.775817567586179</v>
       </c>
       <c r="AA28" t="n">
-        <v>75.3</v>
+        <v>0.271197201316861</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.63158522</v>
+        <v>0.837401165333124</v>
       </c>
       <c r="AC28" t="n">
-        <v>4771</v>
+        <v>0.000561001788572764</v>
       </c>
       <c r="AD28" t="n">
-        <v>64.0262567</v>
+        <v>-0.0824340431563334</v>
       </c>
       <c r="AE28" t="n">
-        <v>39</v>
+        <v>-0.207535419299111</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.81286511</v>
+        <v>0.910771685466341</v>
       </c>
       <c r="AG28" t="n">
-        <v>9.9307</v>
+        <v>-0.272536983518752</v>
       </c>
       <c r="AH28" t="n">
-        <v>40.5</v>
+        <v>-0.0971667674002858</v>
       </c>
       <c r="AI28" t="n">
-        <v>81.1337</v>
+        <v>0.112027689688693</v>
       </c>
       <c r="AJ28" t="n">
-        <v>65.9385</v>
+        <v>0.614503906784133</v>
       </c>
       <c r="AK28" t="n">
-        <v>51.97</v>
+        <v>0.312665337236629</v>
       </c>
       <c r="AL28"/>
       <c r="AM28" t="n">
-        <v>0.19811320754717</v>
+        <v>-0.520711247294974</v>
       </c>
       <c r="AN28" t="n">
-        <v>19.3</v>
+        <v>0.343079466207522</v>
       </c>
       <c r="AO28" t="n">
-        <v>33256</v>
+        <v>0.631155585812595</v>
       </c>
       <c r="AP28" t="n">
-        <v>41.2</v>
+        <v>-0.705825366217165</v>
       </c>
       <c r="AQ28" t="n">
-        <v>27.19</v>
+        <v>0.388502190052748</v>
       </c>
       <c r="AR28" t="n">
-        <v>66.8</v>
+        <v>0.216610061373834</v>
       </c>
       <c r="AS28" t="n">
-        <v>24.24</v>
+        <v>-0.100100353845361</v>
       </c>
       <c r="AT28" t="n">
-        <v>46.4286</v>
+        <v>0.307839819315142</v>
       </c>
       <c r="AU28" t="n">
-        <v>12.65087</v>
+        <v>-0.304071319734727</v>
       </c>
       <c r="AV28" t="n">
-        <v>19.48612</v>
+        <v>-0.431312006591642</v>
       </c>
       <c r="AW28" t="n">
-        <v>10.01</v>
+        <v>0.930228838941281</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.118306351183064</v>
+        <v>-0.0340349060358496</v>
       </c>
       <c r="AY28" t="n">
-        <v>0.996177659214429</v>
+        <v>0.123355822833989</v>
       </c>
       <c r="AZ28" t="n">
-        <v>46</v>
+        <v>-0.242513589229395</v>
       </c>
     </row>
     <row r="29">
@@ -5101,152 +5101,152 @@
         <v>107</v>
       </c>
       <c r="C29" t="n">
-        <v>45</v>
+        <v>1.27161714400667</v>
       </c>
       <c r="D29" t="n">
-        <v>41.65344</v>
+        <v>0.527787129515661</v>
       </c>
       <c r="E29" t="n">
-        <v>14.71755</v>
+        <v>0.434373556549402</v>
       </c>
       <c r="F29" t="n">
-        <v>446</v>
+        <v>-0.00351340203160437</v>
       </c>
       <c r="G29" t="n">
-        <v>54.5844494</v>
+        <v>-0.754730480017987</v>
       </c>
       <c r="H29" t="n">
-        <v>70.62149123</v>
+        <v>0.264469885273501</v>
       </c>
       <c r="I29" t="n">
-        <v>91.2081929</v>
+        <v>0.241966853137634</v>
       </c>
       <c r="J29" t="n">
-        <v>5.925903994</v>
+        <v>0.0847879387197834</v>
       </c>
       <c r="K29" t="n">
-        <v>3.314466371</v>
+        <v>-0.137256460151887</v>
       </c>
       <c r="L29" t="n">
-        <v>31.78120903</v>
+        <v>0.525015429431287</v>
       </c>
       <c r="M29" t="n">
-        <v>7.345967</v>
+        <v>-0.0650738335396508</v>
       </c>
       <c r="N29" t="n">
-        <v>15.3321829</v>
+        <v>0.0458281797364227</v>
       </c>
       <c r="O29" t="n">
-        <v>123.646636049012</v>
+        <v>-0.334985607985946</v>
       </c>
       <c r="P29" t="n">
-        <v>4.9</v>
+        <v>1.34153388071068</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.191</v>
+        <v>0.339918948712011</v>
       </c>
       <c r="R29" t="n">
-        <v>88.9</v>
+        <v>1.18239911608951</v>
       </c>
       <c r="S29" t="n">
-        <v>122950</v>
+        <v>-0.237717794029003</v>
       </c>
       <c r="T29" t="n">
-        <v>5.36</v>
+        <v>-0.157974299131209</v>
       </c>
       <c r="U29" t="n">
-        <v>299483</v>
+        <v>-0.258976988890894</v>
       </c>
       <c r="V29" t="n">
-        <v>126333</v>
+        <v>-0.25713522216132</v>
       </c>
       <c r="W29" t="n">
-        <v>71.5036</v>
+        <v>-0.0351679914909318</v>
       </c>
       <c r="X29" t="n">
-        <v>42</v>
+        <v>-0.156016955956733</v>
       </c>
       <c r="Y29" t="n">
-        <v>21.5</v>
+        <v>-1.0129190115521</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.123646636049012</v>
+        <v>-0.684466329645559</v>
       </c>
       <c r="AA29" t="n">
-        <v>74.8</v>
+        <v>-0.162222983436117</v>
       </c>
       <c r="AB29" t="n">
-        <v>7.00664271</v>
+        <v>0.441946860451335</v>
       </c>
       <c r="AC29" t="n">
-        <v>3162</v>
+        <v>-0.0355450733239704</v>
       </c>
       <c r="AD29" t="n">
-        <v>94.09509</v>
+        <v>0.65734972264755</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>-0.643921325809886</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.01901302</v>
+        <v>-0.827525276732282</v>
       </c>
       <c r="AG29" t="n">
-        <v>33.2857</v>
+        <v>0.977021555371141</v>
       </c>
       <c r="AH29" t="n">
-        <v>19.3</v>
+        <v>-1.45493967532895</v>
       </c>
       <c r="AI29" t="n">
-        <v>78.1014</v>
+        <v>-0.0857623475834969</v>
       </c>
       <c r="AJ29" t="n">
-        <v>54.2324</v>
+        <v>-0.248886908352147</v>
       </c>
       <c r="AK29" t="n">
-        <v>57.04</v>
+        <v>0.760176743049177</v>
       </c>
       <c r="AL29"/>
       <c r="AM29" t="n">
-        <v>0.386792452830189</v>
+        <v>0.265528830640277</v>
       </c>
       <c r="AN29" t="n">
-        <v>19.5</v>
+        <v>0.365692990345495</v>
       </c>
       <c r="AO29" t="n">
-        <v>16343</v>
+        <v>-0.197484766565864</v>
       </c>
       <c r="AP29" t="n">
-        <v>60.4</v>
+        <v>0.465321908098723</v>
       </c>
       <c r="AQ29" t="n">
-        <v>21.85</v>
+        <v>-0.0160387833767387</v>
       </c>
       <c r="AR29" t="n">
-        <v>56.7</v>
+        <v>-0.534092455250189</v>
       </c>
       <c r="AS29" t="n">
-        <v>42.8</v>
+        <v>1.65611420835322</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>-0.768843860909742</v>
       </c>
       <c r="AU29" t="n">
-        <v>12.94529</v>
+        <v>-0.285288680761923</v>
       </c>
       <c r="AV29" t="n">
-        <v>26.7614</v>
+        <v>0.0216539361846434</v>
       </c>
       <c r="AW29" t="n">
-        <v>9.11</v>
+        <v>0.0781727637260905</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.0133333333333334</v>
+        <v>-0.829194782047341</v>
       </c>
       <c r="AY29" t="n">
-        <v>0.97054639779098</v>
+        <v>0.0629354608277495</v>
       </c>
       <c r="AZ29" t="n">
-        <v>34</v>
+        <v>-0.266834436286784</v>
       </c>
     </row>
     <row r="30">
@@ -5257,152 +5257,152 @@
         <v>109</v>
       </c>
       <c r="C30" t="n">
-        <v>19.5</v>
+        <v>-0.399592252291303</v>
       </c>
       <c r="D30" t="n">
-        <v>29.09826</v>
+        <v>-0.0354349502175648</v>
       </c>
       <c r="E30" t="n">
-        <v>11.30238</v>
+        <v>-0.00765566486480453</v>
       </c>
       <c r="F30" t="n">
-        <v>522</v>
+        <v>0.0140536081264168</v>
       </c>
       <c r="G30" t="n">
-        <v>79.3304273</v>
+        <v>0.48297855388702</v>
       </c>
       <c r="H30" t="n">
-        <v>88.04782263</v>
+        <v>0.911424974825457</v>
       </c>
       <c r="I30" t="n">
-        <v>95.13561344</v>
+        <v>0.435318298108082</v>
       </c>
       <c r="J30" t="n">
-        <v>1.637601909</v>
+        <v>-0.171535569125964</v>
       </c>
       <c r="K30" t="n">
-        <v>1.169815073</v>
+        <v>-0.265558830639967</v>
       </c>
       <c r="L30" t="n">
-        <v>5.745675085</v>
+        <v>-0.613591986974455</v>
       </c>
       <c r="M30" t="n">
-        <v>3.359403</v>
+        <v>-0.309082121855969</v>
       </c>
       <c r="N30" t="n">
-        <v>19.5151599</v>
+        <v>0.247719105995711</v>
       </c>
       <c r="O30" t="n">
-        <v>411.62107740279</v>
+        <v>0.241118909072588</v>
       </c>
       <c r="P30" t="n">
-        <v>2.7</v>
+        <v>0.170353508661673</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>1.28238715044399</v>
       </c>
       <c r="R30" t="n">
-        <v>86.9</v>
+        <v>1.07419158814303</v>
       </c>
       <c r="S30" t="n">
-        <v>120481</v>
+        <v>-0.239740150303902</v>
       </c>
       <c r="T30" t="n">
-        <v>3</v>
+        <v>-0.301951758120923</v>
       </c>
       <c r="U30" t="n">
-        <v>407708</v>
+        <v>-0.230342693067106</v>
       </c>
       <c r="V30" t="n">
-        <v>165261</v>
+        <v>-0.232152824888224</v>
       </c>
       <c r="W30" t="n">
-        <v>75.7427</v>
+        <v>0.374291018093185</v>
       </c>
       <c r="X30" t="n">
-        <v>47.7</v>
+        <v>0.200516637552639</v>
       </c>
       <c r="Y30" t="n">
-        <v>44.4</v>
+        <v>0.297580726557678</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.400604454893226</v>
+        <v>-0.218670906999585</v>
       </c>
       <c r="AA30" t="n">
-        <v>75.8</v>
+        <v>0.70461738606984</v>
       </c>
       <c r="AB30" t="n">
-        <v>4.26357598</v>
+        <v>-0.225619862851702</v>
       </c>
       <c r="AC30" t="n">
-        <v>5079</v>
+        <v>0.00747254382378922</v>
       </c>
       <c r="AD30" t="n">
-        <v>85.6148949</v>
+        <v>0.448711409240503</v>
       </c>
       <c r="AE30" t="n">
-        <v>31</v>
+        <v>-0.41289349295124</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.32164747</v>
+        <v>-0.164846987264465</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.7939</v>
+        <v>-0.226353342723643</v>
       </c>
       <c r="AH30" t="n">
-        <v>45.4</v>
+        <v>0.216658102828509</v>
       </c>
       <c r="AI30" t="n">
-        <v>79.4514</v>
+        <v>0.00229508417373631</v>
       </c>
       <c r="AJ30" t="n">
-        <v>54.7514</v>
+        <v>-0.210607734839558</v>
       </c>
       <c r="AK30" t="n">
-        <v>45.1</v>
+        <v>-0.293725857621794</v>
       </c>
       <c r="AL30"/>
       <c r="AM30" t="n">
-        <v>0.264150943396226</v>
+        <v>-0.245527220017639</v>
       </c>
       <c r="AN30" t="n">
-        <v>17.9</v>
+        <v>0.184784797241716</v>
       </c>
       <c r="AO30" t="n">
-        <v>10441</v>
+        <v>-0.486649040186018</v>
       </c>
       <c r="AP30" t="n">
-        <v>45.1</v>
+        <v>-0.46793607612175</v>
       </c>
       <c r="AQ30" t="n">
-        <v>26.55</v>
+        <v>0.340017878630487</v>
       </c>
       <c r="AR30" t="n">
-        <v>64.1</v>
+        <v>0.0159272103951344</v>
       </c>
       <c r="AS30" t="n">
-        <v>33.33</v>
+        <v>0.760028437662456</v>
       </c>
       <c r="AT30" t="n">
-        <v>11.7647</v>
+        <v>-1.43385377816427</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.988452</v>
+        <v>-1.04807983425117</v>
       </c>
       <c r="AV30" t="n">
-        <v>11.84035</v>
+        <v>-0.907345013747468</v>
       </c>
       <c r="AW30" t="n">
-        <v>9.41</v>
+        <v>0.362191455464488</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.25275</v>
+        <v>0.984361985981118</v>
       </c>
       <c r="AY30" t="n">
-        <v>1.05696708822185</v>
+        <v>0.266654244480174</v>
       </c>
       <c r="AZ30" t="n">
-        <v>19</v>
+        <v>-0.297235495108521</v>
       </c>
     </row>
     <row r="31">
@@ -5413,152 +5413,152 @@
         <v>111</v>
       </c>
       <c r="C31" t="n">
-        <v>24</v>
+        <v>-0.104672947062248</v>
       </c>
       <c r="D31" t="n">
-        <v>20.08435</v>
+        <v>-0.439796587145758</v>
       </c>
       <c r="E31" t="n">
-        <v>13.41635</v>
+        <v>0.265957804799368</v>
       </c>
       <c r="F31" t="n">
-        <v>82</v>
+        <v>-0.0876501348937058</v>
       </c>
       <c r="G31" t="n">
-        <v>67.4662517</v>
+        <v>-0.110426862512198</v>
       </c>
       <c r="H31" t="n">
-        <v>51.91821066</v>
+        <v>-0.42989212806912</v>
       </c>
       <c r="I31" t="n">
-        <v>89.24246726</v>
+        <v>0.145191911661807</v>
       </c>
       <c r="J31" t="n">
-        <v>0.045671682</v>
+        <v>-0.266689579254502</v>
       </c>
       <c r="K31" t="n">
-        <v>0.773332675</v>
+        <v>-0.289278132499266</v>
       </c>
       <c r="L31" t="n">
-        <v>9.060582869</v>
+        <v>-0.46862170921726</v>
       </c>
       <c r="M31" t="n">
-        <v>6.091983</v>
+        <v>-0.141827270689048</v>
       </c>
       <c r="N31" t="n">
-        <v>6.17668087</v>
+        <v>-0.396061121879507</v>
       </c>
       <c r="O31" t="n">
-        <v>208.694604823679</v>
+        <v>-0.16484370668594</v>
       </c>
       <c r="P31" t="n">
-        <v>1.7</v>
+        <v>-0.362001205906056</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.331</v>
+        <v>-0.629119666667467</v>
       </c>
       <c r="R31" t="n">
-        <v>59.2</v>
+        <v>-0.42448267391578</v>
       </c>
       <c r="S31" t="n">
-        <v>51139</v>
+        <v>-0.296538136862855</v>
       </c>
       <c r="T31" t="n">
-        <v>3.95</v>
+        <v>-0.243994730137775</v>
       </c>
       <c r="U31" t="n">
-        <v>156839</v>
+        <v>-0.296717903591642</v>
       </c>
       <c r="V31" t="n">
-        <v>74036</v>
+        <v>-0.290697296508604</v>
       </c>
       <c r="W31" t="n">
-        <v>64.476</v>
+        <v>-0.713971071331782</v>
       </c>
       <c r="X31" t="n">
-        <v>32.5</v>
+        <v>-0.750239611805685</v>
       </c>
       <c r="Y31" t="n">
-        <v>23.4</v>
+        <v>-0.904187592232945</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>-0.892418707872507</v>
       </c>
       <c r="AA31" t="n">
-        <v>75.2</v>
+        <v>0.184513164366271</v>
       </c>
       <c r="AB31" t="n">
-        <v>4.01484256</v>
+        <v>-0.286152897775485</v>
       </c>
       <c r="AC31" t="n">
-        <v>1283</v>
+        <v>-0.0777099677530993</v>
       </c>
       <c r="AD31" t="n">
-        <v>86.4735322</v>
+        <v>0.469836470160432</v>
       </c>
       <c r="AE31" t="n">
-        <v>74</v>
+        <v>0.690906152928956</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.595643</v>
+        <v>0.435120693686027</v>
       </c>
       <c r="AG31" t="n">
-        <v>3.2135</v>
+        <v>-0.631926177157424</v>
       </c>
       <c r="AH31" t="n">
-        <v>45.5</v>
+        <v>0.223062692016852</v>
       </c>
       <c r="AI31" t="n">
-        <v>80.542</v>
+        <v>0.0734324434881344</v>
       </c>
       <c r="AJ31" t="n">
-        <v>63.6497</v>
+        <v>0.445692014037281</v>
       </c>
       <c r="AK31" t="n">
-        <v>39.38</v>
+        <v>-0.798610520589798</v>
       </c>
       <c r="AL31"/>
       <c r="AM31" t="n">
-        <v>0.169811320754717</v>
+        <v>-0.638647258985262</v>
       </c>
       <c r="AN31" t="n">
-        <v>19.6</v>
+        <v>0.376999752414481</v>
       </c>
       <c r="AO31" t="n">
-        <v>28711</v>
+        <v>0.4084765577537</v>
       </c>
       <c r="AP31" t="n">
-        <v>68.2</v>
+        <v>0.941100488289553</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20.09</v>
+        <v>-0.149370639787955</v>
       </c>
       <c r="AR31" t="n">
-        <v>62.6</v>
+        <v>-0.0955632623708091</v>
       </c>
       <c r="AS31" t="n">
-        <v>18.8</v>
+        <v>-0.614852897938048</v>
       </c>
       <c r="AT31" t="n">
-        <v>54.5455</v>
+        <v>0.715674851189242</v>
       </c>
       <c r="AU31" t="n">
-        <v>12.93092</v>
+        <v>-0.286205420528376</v>
       </c>
       <c r="AV31" t="n">
-        <v>15.85893</v>
+        <v>-0.657144350910859</v>
       </c>
       <c r="AW31" t="n">
-        <v>9.14</v>
+        <v>0.106574632899931</v>
       </c>
       <c r="AX31" t="n">
-        <v>0.253477588871716</v>
+        <v>0.989873397283489</v>
       </c>
       <c r="AY31" t="n">
-        <v>1.15694434123504</v>
+        <v>0.50232980174791</v>
       </c>
       <c r="AZ31" t="n">
-        <v>15</v>
+        <v>-0.305342444127651</v>
       </c>
     </row>
     <row r="32">
@@ -5569,152 +5569,152 @@
         <v>113</v>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>0.288552793243157</v>
       </c>
       <c r="D32" t="n">
-        <v>28.71873</v>
+        <v>-0.052460566411132</v>
       </c>
       <c r="E32" t="n">
-        <v>12.1576</v>
+        <v>0.103036403388857</v>
       </c>
       <c r="F32" t="n">
-        <v>1493</v>
+        <v>0.238495277382188</v>
       </c>
       <c r="G32" t="n">
-        <v>50.1711908</v>
+        <v>-0.975466555199682</v>
       </c>
       <c r="H32" t="n">
-        <v>66.07900332</v>
+        <v>0.0958293604753361</v>
       </c>
       <c r="I32" t="n">
-        <v>88.12627379</v>
+        <v>0.0902404191763403</v>
       </c>
       <c r="J32" t="n">
-        <v>5.59437169</v>
+        <v>0.0649713489737597</v>
       </c>
       <c r="K32" t="n">
-        <v>7.203625151</v>
+        <v>0.0954099370120068</v>
       </c>
       <c r="L32" t="n">
-        <v>33.52554813</v>
+        <v>0.601300303795</v>
       </c>
       <c r="M32" t="n">
-        <v>8.375318</v>
+        <v>-0.00206965861942114</v>
       </c>
       <c r="N32" t="n">
-        <v>12.2068891</v>
+        <v>-0.105013782845349</v>
       </c>
       <c r="O32" t="n">
-        <v>99.9969907470325</v>
+        <v>-0.382297679922791</v>
       </c>
       <c r="P32" t="n">
-        <v>1.4</v>
+        <v>-0.521707620276374</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.625</v>
+        <v>-0.475949046817163</v>
       </c>
       <c r="R32" t="n">
-        <v>80.5</v>
+        <v>0.72792749871428</v>
       </c>
       <c r="S32" t="n">
-        <v>269988</v>
+        <v>-0.117279065009718</v>
       </c>
       <c r="T32" t="n">
-        <v>9.44</v>
+        <v>0.090935884206942</v>
       </c>
       <c r="U32" t="n">
-        <v>1009869</v>
+        <v>-0.0710222383889078</v>
       </c>
       <c r="V32" t="n">
-        <v>407422</v>
+        <v>-0.0767438055178441</v>
       </c>
       <c r="W32" t="n">
-        <v>74.0293</v>
+        <v>0.208791957674364</v>
       </c>
       <c r="X32" t="n">
-        <v>31</v>
+        <v>-0.844064241676572</v>
       </c>
       <c r="Y32" t="n">
-        <v>26.7</v>
+        <v>-0.715338284994418</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.10420169372406</v>
+        <v>0.964658650553347</v>
       </c>
       <c r="AA32" t="n">
-        <v>74.1</v>
+        <v>-0.769011242090289</v>
       </c>
       <c r="AB32" t="n">
-        <v>3.05778931</v>
+        <v>-0.519066262638841</v>
       </c>
       <c r="AC32" t="n">
-        <v>13544</v>
+        <v>0.197427749434527</v>
       </c>
       <c r="AD32" t="n">
-        <v>105.760681</v>
+        <v>0.944358358938998</v>
       </c>
       <c r="AE32" t="n">
-        <v>57</v>
+        <v>0.254520246418181</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.08725486</v>
+        <v>-0.678096202146304</v>
       </c>
       <c r="AG32" t="n">
-        <v>29.4055</v>
+        <v>0.769419883669126</v>
       </c>
       <c r="AH32" t="n">
-        <v>38.2</v>
+        <v>-0.244472318732169</v>
       </c>
       <c r="AI32" t="n">
-        <v>77.3686</v>
+        <v>-0.133561226095867</v>
       </c>
       <c r="AJ32" t="n">
-        <v>54.397</v>
+        <v>-0.236746731164917</v>
       </c>
       <c r="AK32" t="n">
-        <v>46.03</v>
+        <v>-0.211637966614759</v>
       </c>
       <c r="AL32"/>
       <c r="AM32" t="n">
-        <v>0.707547169811321</v>
+        <v>1.6021369631302</v>
       </c>
       <c r="AN32" t="n">
-        <v>18.7</v>
+        <v>0.275238893793605</v>
       </c>
       <c r="AO32" t="n">
-        <v>10461</v>
+        <v>-0.485669154473988</v>
       </c>
       <c r="AP32" t="n">
-        <v>60.1</v>
+        <v>0.447022731937538</v>
       </c>
       <c r="AQ32" t="n">
-        <v>19.27</v>
+        <v>-0.211491163797727</v>
       </c>
       <c r="AR32" t="n">
-        <v>62.6</v>
+        <v>-0.0955632623708091</v>
       </c>
       <c r="AS32" t="n">
-        <v>24</v>
+        <v>-0.122810024908274</v>
       </c>
       <c r="AT32" t="n">
-        <v>24.7619</v>
+        <v>-0.780807236224114</v>
       </c>
       <c r="AU32" t="n">
-        <v>20.59987</v>
+        <v>0.203038242098093</v>
       </c>
       <c r="AV32" t="n">
-        <v>32.23031</v>
+        <v>0.36215354226285</v>
       </c>
       <c r="AW32" t="n">
-        <v>8.04</v>
+        <v>-0.934827236807524</v>
       </c>
       <c r="AX32" t="n">
-        <v>0.206121029445861</v>
+        <v>0.631152302160755</v>
       </c>
       <c r="AY32" t="n">
-        <v>0.970331783223037</v>
+        <v>0.0624295516696828</v>
       </c>
       <c r="AZ32" t="n">
-        <v>98</v>
+        <v>-0.137123251980709</v>
       </c>
     </row>
     <row r="33">
@@ -5725,152 +5725,152 @@
         <v>115</v>
       </c>
       <c r="C33" t="n">
-        <v>18.4</v>
+        <v>-0.47168363801396</v>
       </c>
       <c r="D33" t="n">
-        <v>35.29252</v>
+        <v>0.24243792771874</v>
       </c>
       <c r="E33" t="n">
-        <v>12.43383</v>
+        <v>0.138789157082304</v>
       </c>
       <c r="F33" t="n">
-        <v>422</v>
+        <v>-0.00906087892361106</v>
       </c>
       <c r="G33" t="n">
-        <v>66.2600757</v>
+        <v>-0.17075565362776</v>
       </c>
       <c r="H33" t="n">
-        <v>95.75500035</v>
+        <v>1.19755506942675</v>
       </c>
       <c r="I33" t="n">
-        <v>86.71725343</v>
+        <v>0.0208727210080202</v>
       </c>
       <c r="J33" t="n">
-        <v>5.423782276</v>
+        <v>0.0547747545801932</v>
       </c>
       <c r="K33" t="n">
-        <v>1.391785735</v>
+        <v>-0.25227958000376</v>
       </c>
       <c r="L33" t="n">
-        <v>34.57915936</v>
+        <v>0.64737769798329</v>
       </c>
       <c r="M33" t="n">
-        <v>8.586881</v>
+        <v>0.0108796193806474</v>
       </c>
       <c r="N33" t="n">
-        <v>2.72453709</v>
+        <v>-0.562678462908263</v>
       </c>
       <c r="O33" t="n">
-        <v>240.698759208231</v>
+        <v>-0.100818101431173</v>
       </c>
       <c r="P33" t="n">
-        <v>1.8</v>
+        <v>-0.308765734449283</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.655</v>
+        <v>-0.460319391730397</v>
       </c>
       <c r="R33" t="n">
-        <v>33.8</v>
+        <v>-1.79871827883613</v>
       </c>
       <c r="S33" t="n">
-        <v>83226</v>
+        <v>-0.270255696282584</v>
       </c>
       <c r="T33" t="n">
-        <v>7.44</v>
+        <v>-0.0310789115470534</v>
       </c>
       <c r="U33" t="n">
-        <v>248939</v>
+        <v>-0.27234997894049</v>
       </c>
       <c r="V33" t="n">
-        <v>97881</v>
+        <v>-0.275394551364313</v>
       </c>
       <c r="W33" t="n">
-        <v>75.3977</v>
+        <v>0.34096711483388</v>
       </c>
       <c r="X33" t="n">
-        <v>43.3</v>
+        <v>-0.0747022767352972</v>
       </c>
       <c r="Y33" t="n">
-        <v>47.3</v>
+        <v>0.463539208676383</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.328823441541299</v>
+        <v>-0.339394227221225</v>
       </c>
       <c r="AA33" t="n">
-        <v>75.49</v>
+        <v>0.435896871522991</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.9252077</v>
+        <v>0.908858631065907</v>
       </c>
       <c r="AC33" t="n">
-        <v>3899</v>
+        <v>-0.0190067405968453</v>
       </c>
       <c r="AD33" t="n">
-        <v>71.6835103</v>
+        <v>0.105957433406987</v>
       </c>
       <c r="AE33" t="n">
-        <v>4</v>
+        <v>-1.10597699152718</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.143</v>
+        <v>-0.556031136449573</v>
       </c>
       <c r="AG33" t="n">
-        <v>22.4357</v>
+        <v>0.396515875775537</v>
       </c>
       <c r="AH33" t="n">
-        <v>51.7</v>
+        <v>0.620147221694103</v>
       </c>
       <c r="AI33" t="n">
-        <v>94.7331</v>
+        <v>0.99908564334744</v>
       </c>
       <c r="AJ33" t="n">
-        <v>64.64</v>
+        <v>0.518732217369686</v>
       </c>
       <c r="AK33" t="n">
-        <v>70.86</v>
+        <v>1.98002045672362</v>
       </c>
       <c r="AL33"/>
       <c r="AM33" t="n">
-        <v>0.405660377358491</v>
+        <v>0.344152838433802</v>
       </c>
       <c r="AN33" t="n">
-        <v>17.2</v>
+        <v>0.105637462758813</v>
       </c>
       <c r="AO33" t="n">
-        <v>21584</v>
+        <v>0.0592942842716875</v>
       </c>
       <c r="AP33" t="n">
-        <v>58.4</v>
+        <v>0.343327400357485</v>
       </c>
       <c r="AQ33" t="n">
-        <v>20.09</v>
+        <v>-0.149370639787955</v>
       </c>
       <c r="AR33" t="n">
-        <v>62.2</v>
+        <v>-0.125294055108394</v>
       </c>
       <c r="AS33" t="n">
-        <v>24</v>
+        <v>-0.122810024908274</v>
       </c>
       <c r="AT33" t="n">
-        <v>9.0909</v>
+        <v>-1.56819931749887</v>
       </c>
       <c r="AU33" t="n">
-        <v>17.40445</v>
+        <v>-0.000814825718214595</v>
       </c>
       <c r="AV33" t="n">
-        <v>28.03449</v>
+        <v>0.100917746249557</v>
       </c>
       <c r="AW33" t="n">
-        <v>8.63</v>
+        <v>-0.376257143055343</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.128296826106392</v>
+        <v>0.0416419199148087</v>
       </c>
       <c r="AY33" t="n">
-        <v>1.0299108777927</v>
+        <v>0.202874861887998</v>
       </c>
       <c r="AZ33" t="n">
-        <v>45</v>
+        <v>-0.244540326484178</v>
       </c>
     </row>
     <row r="34">
@@ -5881,150 +5881,150 @@
         <v>117</v>
       </c>
       <c r="C34" t="n">
-        <v>16.8</v>
+        <v>-0.576543835428735</v>
       </c>
       <c r="D34" t="n">
-        <v>32.55314</v>
+        <v>0.119550059860246</v>
       </c>
       <c r="E34" t="n">
-        <v>16.92763</v>
+        <v>0.720426649561789</v>
       </c>
       <c r="F34" t="n">
-        <v>151</v>
+        <v>-0.0717011388291866</v>
       </c>
       <c r="G34" t="n">
-        <v>81.106196</v>
+        <v>0.571796420410523</v>
       </c>
       <c r="H34" t="n">
-        <v>49.47517461</v>
+        <v>-0.520590196998671</v>
       </c>
       <c r="I34" t="n">
-        <v>87.85622086</v>
+        <v>0.0769454018227863</v>
       </c>
       <c r="J34" t="n">
-        <v>0.093808161</v>
+        <v>-0.263812330658657</v>
       </c>
       <c r="K34" t="n">
-        <v>0.815755769</v>
+        <v>-0.286740198463689</v>
       </c>
       <c r="L34" t="n">
-        <v>10.46824031</v>
+        <v>-0.407060874495484</v>
       </c>
       <c r="M34" t="n">
-        <v>1.574721</v>
+        <v>-0.418318346336234</v>
       </c>
       <c r="N34" t="n">
-        <v>21.0401317</v>
+        <v>0.321321702716012</v>
       </c>
       <c r="O34" t="n">
-        <v>167.634283802033</v>
+        <v>-0.246986539575</v>
       </c>
       <c r="P34" t="n">
-        <v>2.6</v>
+        <v>0.1171180372049</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.784</v>
+        <v>0.127876628034888</v>
       </c>
       <c r="R34" t="n">
-        <v>80.9</v>
+        <v>0.749569004303577</v>
       </c>
       <c r="S34" t="n">
-        <v>75806</v>
+        <v>-0.276333413398725</v>
       </c>
       <c r="T34" t="n">
-        <v>4.39</v>
+        <v>-0.217151475071896</v>
       </c>
       <c r="U34" t="n">
-        <v>204562</v>
+        <v>-0.284091296988744</v>
       </c>
       <c r="V34" t="n">
-        <v>82536</v>
+        <v>-0.285242344370778</v>
       </c>
       <c r="W34" t="n">
-        <v>61.4712</v>
+        <v>-1.00420778006674</v>
       </c>
       <c r="X34" t="n">
-        <v>35.6</v>
+        <v>-0.556335376739185</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.9</v>
+        <v>-0.532211684035847</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.49946900201723</v>
+        <v>-0.0523977405495295</v>
       </c>
       <c r="AA34" t="n">
-        <v>75.26</v>
+        <v>0.23652358653663</v>
       </c>
       <c r="AB34" t="n">
-        <v>6.4306634</v>
+        <v>0.301773595083108</v>
       </c>
       <c r="AC34" t="n">
-        <v>2137</v>
+        <v>-0.0585461466554537</v>
       </c>
       <c r="AD34" t="n">
-        <v>69.5510585</v>
+        <v>0.0534927033238523</v>
       </c>
       <c r="AE34" t="n">
-        <v>75</v>
+        <v>0.716575912135472</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.46946777</v>
+        <v>0.158834945022554</v>
       </c>
       <c r="AG34" t="n">
-        <v>22.2239</v>
+        <v>0.38518397688721</v>
       </c>
       <c r="AH34" t="n">
-        <v>41.7</v>
+        <v>-0.0203116971401726</v>
       </c>
       <c r="AI34" t="n">
-        <v>73.6056</v>
+        <v>-0.37901316365325</v>
       </c>
       <c r="AJ34" t="n">
-        <v>63.8355</v>
+        <v>0.459395810643523</v>
       </c>
       <c r="AK34" t="n">
-        <v>45.51</v>
+        <v>-0.257536572339123</v>
       </c>
       <c r="AL34"/>
       <c r="AM34" t="n">
-        <v>0.160377358490566</v>
+        <v>-0.677959262882025</v>
       </c>
       <c r="AN34" t="n">
-        <v>18.3</v>
+        <v>0.230011845517661</v>
       </c>
       <c r="AO34" t="n">
-        <v>13252</v>
+        <v>-0.348926103360153</v>
       </c>
       <c r="AP34" t="n">
-        <v>55.5</v>
+        <v>0.166435364132689</v>
       </c>
       <c r="AQ34" t="n">
-        <v>24.2</v>
+        <v>0.161989547626874</v>
       </c>
       <c r="AR34" t="n">
-        <v>69.3</v>
+        <v>0.402427515983741</v>
       </c>
       <c r="AS34"/>
       <c r="AT34" t="n">
-        <v>31.8182</v>
+        <v>-0.426262233154812</v>
       </c>
       <c r="AU34" t="n">
-        <v>17.7368</v>
+        <v>0.0203875724293683</v>
       </c>
       <c r="AV34" t="n">
-        <v>25.81449</v>
+        <v>-0.0373015927948999</v>
       </c>
       <c r="AW34" t="n">
-        <v>8.77</v>
+        <v>-0.243715086910759</v>
       </c>
       <c r="AX34" t="n">
-        <v>0.137030995106036</v>
+        <v>0.107802356959328</v>
       </c>
       <c r="AY34" t="n">
-        <v>1.05831985538959</v>
+        <v>0.269843111412421</v>
       </c>
       <c r="AZ34" t="n">
-        <v>18</v>
+        <v>-0.299262232363303</v>
       </c>
     </row>
     <row r="35">
@@ -6035,154 +6035,154 @@
         <v>119</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-1.67757590828387</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.51049106813532</v>
+        <v>-1.49825496507185</v>
       </c>
       <c r="E35" t="n">
-        <v>-5.2106621617966</v>
+        <v>-2.14495693243243</v>
       </c>
       <c r="F35" t="n">
-        <v>2692.30956192802</v>
+        <v>0.515709530763786</v>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>1.51679976560589</v>
       </c>
       <c r="H35" t="n">
-        <v>100</v>
+        <v>1.35515129927429</v>
       </c>
       <c r="I35" t="n">
-        <v>100</v>
+        <v>0.674797661392877</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>-0.26941950021329</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-0.335542257334346</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.864866582604366</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>-0.514703347501589</v>
       </c>
       <c r="N35" t="n">
-        <v>10.0941017709816</v>
+        <v>-0.20698723162224</v>
       </c>
       <c r="O35" t="n">
-        <v>278.985061053689</v>
+        <v>-0.0242248060993218</v>
       </c>
       <c r="P35" t="n">
-        <v>0.00123897167112319</v>
+        <v>-1.26634464826086</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.227301926441947</v>
+        <v>-1.44097705437848</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-3.62742550113172</v>
       </c>
       <c r="S35" t="n">
-        <v>5631608.59871153</v>
+        <v>4.27442083836515</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-0.484973951751916</v>
       </c>
       <c r="U35" t="n">
-        <v>17426710.6467453</v>
+        <v>4.27256473509401</v>
       </c>
       <c r="V35" t="n">
-        <v>7184337.57903601</v>
+        <v>4.27240326809779</v>
       </c>
       <c r="W35" t="n">
-        <v>96.189231343623</v>
+        <v>2.34924241659534</v>
       </c>
       <c r="X35" t="n">
-        <v>100</v>
+        <v>3.47186873238424</v>
       </c>
       <c r="Y35" t="n">
-        <v>100</v>
+        <v>3.47940541821285</v>
       </c>
       <c r="Z35" t="e">
         <v>#NUM!</v>
       </c>
       <c r="AA35" t="n">
-        <v>77.362808195443</v>
+        <v>2.05932261967458</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.241234933146839</v>
+        <v>-1.20451731484882</v>
       </c>
       <c r="AC35" t="n">
-        <v>27666.231154465</v>
+        <v>0.514331626886243</v>
       </c>
       <c r="AD35" t="n">
-        <v>-34.8885782376831</v>
+        <v>-2.51603658283547</v>
       </c>
       <c r="AE35" t="n">
-        <v>25.1861623404118</v>
+        <v>-0.562133305738645</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.272883616177304</v>
+        <v>-0.271625139054795</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>-0.803857513690186</v>
       </c>
       <c r="AH35" t="n">
-        <v>100</v>
+        <v>3.71356379966365</v>
       </c>
       <c r="AI35" t="n">
-        <v>100</v>
+        <v>1.34263355988238</v>
       </c>
       <c r="AJ35" t="n">
-        <v>100</v>
+        <v>3.12673139926791</v>
       </c>
       <c r="AK35" t="n">
-        <v>79.9758869292886</v>
+        <v>2.78464834132997</v>
       </c>
       <c r="AL35" t="n">
-        <v>37.7271887242357</v>
+        <v>1.80229137846725</v>
       </c>
       <c r="AM35" t="n">
-        <v>1.18437141819839</v>
+        <v>3.58909813446051</v>
       </c>
       <c r="AN35" t="n">
-        <v>-12.803893230958</v>
+        <v>-3.28683135629825</v>
       </c>
       <c r="AO35" t="n">
-        <v>2692.20282120081</v>
+        <v>-0.866295822232335</v>
       </c>
       <c r="AP35" t="n">
-        <v>0</v>
+        <v>-3.21891222568668</v>
       </c>
       <c r="AQ35" t="n">
-        <v>-12.6553610937098</v>
+        <v>-2.63005233494702</v>
       </c>
       <c r="AR35" t="n">
-        <v>100</v>
+        <v>2.6842658585934</v>
       </c>
       <c r="AS35" t="n">
-        <v>51.5378872104889</v>
+        <v>2.48292480974919</v>
       </c>
       <c r="AT35" t="n">
-        <v>100</v>
+        <v>2.99954399536021</v>
       </c>
       <c r="AU35" t="n">
-        <v>0</v>
+        <v>-1.11113851592343</v>
       </c>
       <c r="AV35" t="n">
-        <v>0</v>
+        <v>-1.64453661332181</v>
       </c>
       <c r="AW35" t="n">
-        <v>11.6742654635285</v>
+        <v>2.50583717113048</v>
       </c>
       <c r="AX35" t="n">
-        <v>0</v>
+        <v>-0.930193418623935</v>
       </c>
       <c r="AY35" t="n">
-        <v>0</v>
+        <v>-2.22492559015958</v>
       </c>
       <c r="AZ35" t="n">
-        <v>2264.15063080089</v>
+        <v>4.25309493093392</v>
       </c>
     </row>
     <row r="36">
@@ -6193,154 +6193,154 @@
         <v>121</v>
       </c>
       <c r="C36" t="n">
-        <v>100</v>
+        <v>4.87618643013956</v>
       </c>
       <c r="D36" t="n">
-        <v>-75.2045089318647</v>
+        <v>-4.71442979057341</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.8031378382034</v>
+        <v>-4.68083267765709</v>
       </c>
       <c r="F36" t="n">
-        <v>-18978.309561928</v>
+        <v>-4.49334292028078</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>-3.48485763062499</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>-2.35736325529201</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>-4.24831772696958</v>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>5.70785315374313</v>
       </c>
       <c r="K36" t="n">
-        <v>100</v>
+        <v>5.646892771042</v>
       </c>
       <c r="L36" t="n">
-        <v>100</v>
+        <v>3.50841578913822</v>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>5.60606351630189</v>
       </c>
       <c r="N36" t="n">
-        <v>-80.5926017709816</v>
+        <v>-4.58397103466215</v>
       </c>
       <c r="O36" t="n">
-        <v>-1976.96726105369</v>
+        <v>-4.5373486684983</v>
       </c>
       <c r="P36" t="n">
-        <v>-6.10123897167112</v>
+        <v>-4.51502755194467</v>
       </c>
       <c r="Q36" t="n">
-        <v>-6.10369807355805</v>
+        <v>-4.50251188546594</v>
       </c>
       <c r="R36" t="n">
-        <v>100</v>
+        <v>1.7829508961925</v>
       </c>
       <c r="S36" t="n">
-        <v>-794642.598711532</v>
+        <v>-0.989317287672276</v>
       </c>
       <c r="T36" t="n">
-        <v>100</v>
+        <v>5.61576583594785</v>
       </c>
       <c r="U36" t="n">
-        <v>-2461830.64674526</v>
+        <v>-0.989568551128517</v>
       </c>
       <c r="V36" t="n">
-        <v>-1014236.57903601</v>
+        <v>-0.989106100220434</v>
       </c>
       <c r="W36" t="n">
-        <v>46.4891686563769</v>
+        <v>-2.4513375282487</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>-2.78310659234157</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>-2.2433008617425</v>
       </c>
       <c r="Z36" t="e">
         <v>#NUM!</v>
       </c>
       <c r="AA36" t="n">
-        <v>71.837191804557</v>
+        <v>-2.7305047343492</v>
       </c>
       <c r="AB36" t="n">
-        <v>-13.9234349331468</v>
+        <v>-4.65170368691018</v>
       </c>
       <c r="AC36" t="n">
-        <v>-195424.231154465</v>
+        <v>-4.49183430786714</v>
       </c>
       <c r="AD36" t="n">
-        <v>-121.880921762317</v>
+        <v>-4.65630996313848</v>
       </c>
       <c r="AE36" t="n">
-        <v>-125.186162340412</v>
+        <v>-4.42215467161946</v>
       </c>
       <c r="AF36" t="n">
-        <v>-1.6626836161773</v>
+        <v>-4.50993436884243</v>
       </c>
       <c r="AG36" t="n">
-        <v>100</v>
+        <v>4.54642524755962</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>-2.6910253886791</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>-5.18013916287559</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>-4.24883189795558</v>
       </c>
       <c r="AK36" t="n">
-        <v>21.8041130707113</v>
+        <v>-2.34997341371177</v>
       </c>
       <c r="AL36" t="n">
-        <v>16.1728112757643</v>
+        <v>-1.4396428343094</v>
       </c>
       <c r="AM36" t="n">
-        <v>-0.0239714181983879</v>
+        <v>-1.44615396460334</v>
       </c>
       <c r="AN36" t="n">
-        <v>-23.596106769042</v>
+        <v>-4.50708126302631</v>
       </c>
       <c r="AO36" t="n">
-        <v>-74082.2028212008</v>
+        <v>-4.62780297916289</v>
       </c>
       <c r="AP36" t="n">
-        <v>100</v>
+        <v>2.88081316137524</v>
       </c>
       <c r="AQ36" t="n">
-        <v>-40.0746389062902</v>
+        <v>-4.70724734188237</v>
       </c>
       <c r="AR36" t="n">
-        <v>0</v>
+        <v>-4.74843232580287</v>
       </c>
       <c r="AS36" t="n">
-        <v>0</v>
+        <v>-2.39377713119954</v>
       </c>
       <c r="AT36" t="n">
-        <v>0</v>
+        <v>-2.02497314633306</v>
       </c>
       <c r="AU36" t="n">
-        <v>100</v>
+        <v>5.26840056865098</v>
       </c>
       <c r="AV36" t="n">
-        <v>100</v>
+        <v>4.58155974003209</v>
       </c>
       <c r="AW36" t="n">
-        <v>6.08573453647154</v>
+        <v>-2.78498697101047</v>
       </c>
       <c r="AX36" t="n">
-        <v>-0.398850994090258</v>
+        <v>-3.95144891364906</v>
       </c>
       <c r="AY36" t="n">
-        <v>-1.24741055955176</v>
+        <v>-5.16543625537293</v>
       </c>
       <c r="AZ36" t="n">
-        <v>-328.150630800889</v>
+        <v>-1.0008186115739</v>
       </c>
     </row>
   </sheetData>
